--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -44,7 +44,25 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 9:39 AM</t>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 16 September, 2025 9:42 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +272,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +284,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,32 +692,46 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
+      <c r="P8" s="13">
+        <v>122</v>
+      </c>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c t="s" r="A9" s="14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -707,13 +739,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c t="s" r="G9" s="15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c t="s" r="K9" s="17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -62,7 +62,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 9:42 AM</t>
+    <t>Tuesday, 16 September, 2025 9:43 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -44,25 +44,67 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CANDALKAN 4MG 14 TABLETS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>122.00</t>
   </si>
   <si>
     <t>122.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Tuesday, 16 September, 2025 9:43 AM</t>
+    <t>TOP ZED RESMOOTH GEL</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>مزيل عرق SHALIS رجالي</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 16 September, 2025 10:46 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +766,170 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>122</v>
-      </c>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
         <v>17</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
         <v>18</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
         <v>19</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>12</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>21</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>22</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>25</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>26</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>21</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>29</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>350</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>31</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>32</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>33</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +943,30 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -104,7 +104,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 10:46 AM</t>
+    <t>Tuesday, 16 September, 2025 11:30 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -95,6 +95,18 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>ترمومتر ديجتال</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>مزيل عرق SHALIS رجالي</t>
   </si>
   <si>
@@ -104,7 +116,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 11:30 AM</t>
+    <t>Tuesday, 16 September, 2025 11:31 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -877,7 +889,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -887,49 +899,82 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>350</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>31</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>32</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>12</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>21</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>33</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>400</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>35</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>36</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>37</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -963,10 +1008,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>1:0</t>
+  </si>
+  <si>
+    <t>CLINDAM 300 MG 16 CAPS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>37.5000</t>
   </si>
   <si>
     <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
@@ -790,7 +802,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -800,14 +812,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -816,7 +828,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -829,7 +841,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -856,13 +868,13 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -895,7 +907,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -922,59 +934,92 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>400</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
-        <v>35</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>36</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>12</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>25</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>37</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>437.5</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>39</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>40</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>41</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1013,10 +1058,15 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CANDALKAN 4MG 14 TABLETS</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -65,15 +80,24 @@
     <t>CLINDAM 300 MG 16 CAPS.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>75.00</t>
   </si>
   <si>
     <t>37.5000</t>
   </si>
   <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
     <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
   </si>
   <si>
@@ -83,6 +107,15 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
     <t>TOP ZED RESMOOTH GEL</t>
   </si>
   <si>
@@ -107,6 +140,18 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>ترمومتر ديجتال</t>
   </si>
   <si>
@@ -128,7 +173,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 11:31 AM</t>
+    <t>Tuesday, 16 September, 2025 12:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -819,7 +864,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -828,14 +873,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -845,11 +890,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -861,28 +906,28 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -894,14 +939,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -918,7 +963,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -934,21 +979,21 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -960,20 +1005,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -984,42 +1029,174 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>437.5</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>39</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>40</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>41</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>44</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>45</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>48</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>36</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>49</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>51</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>18</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>36</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>52</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>677.13999999999999</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>54</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>55</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>56</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1063,10 +1240,30 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CAL-PREG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CANDALKAN 4MG 14 TABLETS</t>
   </si>
   <si>
@@ -74,9 +86,6 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CLINDAM 300 MG 16 CAPS.</t>
   </si>
   <si>
@@ -86,12 +95,30 @@
     <t>37.5000</t>
   </si>
   <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>84.00</t>
   </si>
   <si>
@@ -107,6 +134,18 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>MOVENTOR 20 TABS.</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>390.0000</t>
+  </si>
+  <si>
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
@@ -173,7 +212,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 12:11 PM</t>
+    <t>Tuesday, 16 September, 2025 12:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -847,7 +886,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -857,14 +896,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -873,14 +912,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -897,7 +936,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -913,7 +952,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -923,11 +962,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -939,14 +978,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -963,7 +1002,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -979,7 +1018,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -989,14 +1028,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1012,24 +1051,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1038,14 +1077,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1055,14 +1094,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1071,14 +1110,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1088,14 +1127,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1104,31 +1143,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1137,66 +1176,198 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>52</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
         <v>53</v>
       </c>
-      <c t="s" r="Q17" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>677.13999999999999</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>54</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>55</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c t="s" r="Q18" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>56</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>57</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>58</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>61</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>49</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>62</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>64</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>22</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>49</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>65</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>1350.1400000000001</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>67</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>68</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>69</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1260,10 +1431,30 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -212,7 +212,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 12:15 PM</t>
+    <t>Tuesday, 16 September, 2025 12:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>78.00</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -134,6 +143,18 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MORALACT  TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>MOVENTOR 20 TABS.</t>
   </si>
   <si>
@@ -146,6 +167,18 @@
     <t>390.0000</t>
   </si>
   <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
@@ -158,9 +191,6 @@
     <t>TOP ZED RESMOOTH GEL</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>49.00</t>
   </si>
   <si>
@@ -212,7 +242,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 12:18 PM</t>
+    <t>Tuesday, 16 September, 2025 12:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1051,7 +1081,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1084,7 +1114,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1101,7 +1131,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1117,7 +1147,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1127,11 +1157,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1143,20 +1173,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1183,13 +1213,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1233,7 +1263,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1249,7 +1279,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1259,14 +1289,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1275,28 +1305,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1308,66 +1338,165 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>1350.1400000000001</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>66</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
         <v>67</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>68</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c t="s" r="Q22" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>70</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>71</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>45</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>72</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>74</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>22</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>45</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>75</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>1529.6900000000001</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>77</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>78</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>79</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1451,10 +1580,25 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -179,6 +179,18 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
@@ -218,9 +230,6 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>96.0000</t>
-  </si>
-  <si>
     <t>ترمومتر ديجتال</t>
   </si>
   <si>
@@ -242,7 +251,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 12:26 PM</t>
+    <t>Tuesday, 16 September, 2025 12:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1279,7 +1288,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1296,7 +1305,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1305,31 +1314,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1338,20 +1347,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1417,7 +1426,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1425,7 +1434,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1437,14 +1446,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1465,38 +1474,71 @@
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>1529.6900000000001</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>77</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>22</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>45</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>78</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c t="s" r="Q25" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>1625.6900000000001</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>80</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>81</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>82</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1595,10 +1637,15 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -143,6 +143,15 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>MAXICAL D SUSPENSION 120 ML</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MORALACT  TAB</t>
   </si>
   <si>
@@ -179,57 +188,48 @@
     <t>44.5500</t>
   </si>
   <si>
-    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>160.00</t>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
+    <t>TOP ZED RESMOOTH GEL</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
   </si>
   <si>
     <t>96.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>37.9200</t>
-  </si>
-  <si>
-    <t>TOP ZED RESMOOTH GEL</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 100MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
     <t>ترمومتر ديجتال</t>
   </si>
   <si>
@@ -251,7 +251,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 12:27 PM</t>
+    <t>Tuesday, 16 September, 2025 12:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1189,24 +1189,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1215,31 +1215,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1248,14 +1248,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1265,14 +1265,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1281,14 +1281,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1305,7 +1305,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1331,11 +1331,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1360,15 +1360,15 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1380,14 +1380,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1397,11 +1397,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1413,14 +1413,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1430,11 +1430,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1459,7 +1459,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1492,7 +1492,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1508,7 +1508,7 @@
     </row>
     <row r="26" ht="25.5" customHeight="1">
       <c r="P26" s="13">
-        <v>1625.6900000000001</v>
+        <v>1577.6900000000001</v>
       </c>
       <c r="Q26" s="13"/>
     </row>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -251,7 +251,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 12:42 PM</t>
+    <t>Tuesday, 16 September, 2025 1:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -188,6 +188,15 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>PIO WELL GEL</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
@@ -197,6 +206,15 @@
     <t>37.9200</t>
   </si>
   <si>
+    <t>TERA GLOW DAY CARE CREAM</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>350.0000</t>
+  </si>
+  <si>
     <t>TOP ZED RESMOOTH GEL</t>
   </si>
   <si>
@@ -251,7 +269,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 1:11 PM</t>
+    <t>Tuesday, 16 September, 2025 1:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1321,13 +1339,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1338,7 +1356,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1354,13 +1372,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1371,7 +1389,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1387,21 +1405,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1413,28 +1431,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1446,28 +1464,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -1479,66 +1497,132 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>1577.6900000000001</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>79</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
         <v>80</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>48</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>81</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>82</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c t="s" r="Q26" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>83</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>22</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>48</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>84</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>2097.6900000000001</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>86</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>87</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>88</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1642,10 +1726,20 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -224,6 +224,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 100MG 10 SUPP.</t>
   </si>
   <si>
@@ -269,7 +278,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 1:16 PM</t>
+    <t>Tuesday, 16 September, 2025 1:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1471,7 +1480,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1481,14 +1490,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1497,14 +1506,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1514,11 +1523,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -1530,28 +1539,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -1563,14 +1572,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1591,38 +1600,71 @@
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>2097.6900000000001</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>86</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>22</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>48</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>87</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
         <v>88</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c t="s" r="Q28" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>2115.6900000000001</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>89</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>90</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>91</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1736,10 +1778,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -278,7 +278,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 1:23 PM</t>
+    <t>Tuesday, 16 September, 2025 1:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -278,7 +278,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 1:24 PM</t>
+    <t>Tuesday, 16 September, 2025 1:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>37.5000</t>
+  </si>
+  <si>
+    <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
     <t>DICLOPRO 150 MG ID 20 TABS.</t>
@@ -1051,7 +1054,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1061,11 +1064,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>20</v>
@@ -1077,14 +1080,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1094,11 +1097,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>20</v>
@@ -1110,14 +1113,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1127,14 +1130,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1143,14 +1146,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1160,11 +1163,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1176,14 +1179,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1193,14 +1196,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1209,14 +1212,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1226,11 +1229,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1242,31 +1245,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1275,31 +1278,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1308,14 +1311,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1325,14 +1328,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1341,31 +1344,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1374,31 +1377,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1407,31 +1410,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1440,7 +1443,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1453,15 +1456,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1473,31 +1476,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1506,14 +1509,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1523,14 +1526,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1539,14 +1542,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1556,11 +1559,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -1572,28 +1575,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -1605,66 +1608,99 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>2115.6900000000001</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>87</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>22</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>49</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>88</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
         <v>89</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c t="s" r="Q29" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>2155.6900000000001</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
         <v>90</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
         <v>91</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>92</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1783,10 +1819,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -281,7 +281,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 1:25 PM</t>
+    <t>Tuesday, 16 September, 2025 1:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DICLOPRO 150 MG ID 20 TABS.</t>
   </si>
   <si>
@@ -113,9 +125,6 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -227,12 +236,30 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -248,6 +275,18 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -272,6 +311,24 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>مزيل عرق SHALIS رجالي</t>
   </si>
   <si>
@@ -281,7 +338,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 1:30 PM</t>
+    <t>Tuesday, 16 September, 2025 1:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1104,7 +1161,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1134,7 +1191,7 @@
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>20</v>
@@ -1146,7 +1203,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1163,14 +1220,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1219,7 +1276,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1236,7 +1293,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1252,7 +1309,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1285,24 +1342,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1311,31 +1368,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1344,14 +1401,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1361,14 +1418,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1377,20 +1434,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1401,7 +1458,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1417,13 +1474,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1434,7 +1491,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1450,13 +1507,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1467,7 +1524,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1489,7 +1546,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1516,13 +1573,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1533,7 +1590,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1549,7 +1606,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1559,11 +1616,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -1575,14 +1632,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1592,11 +1649,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -1608,31 +1665,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1641,66 +1698,264 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>2155.6900000000001</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>88</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>89</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>13</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>90</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>91</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>92</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>93</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>13</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>94</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>96</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>97</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>52</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>98</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>100</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>22</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>52</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>101</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>103</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>22</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>52</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>104</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>106</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>22</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>52</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>107</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>2243.8899999999999</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>109</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>110</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>111</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1824,10 +2079,40 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -155,6 +155,15 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>MAVILOR 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>MAXICAL D SUSPENSION 120 ML</t>
   </si>
   <si>
@@ -338,7 +347,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 1:34 PM</t>
+    <t>Tuesday, 16 September, 2025 1:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1342,7 +1351,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1359,7 +1368,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1375,24 +1384,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1401,31 +1410,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1434,14 +1443,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1451,14 +1460,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1467,20 +1476,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1491,7 +1500,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1507,13 +1516,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1524,7 +1533,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1540,13 +1549,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1557,7 +1566,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1579,7 +1588,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1606,13 +1615,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1639,7 +1648,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1649,11 +1658,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -1665,14 +1674,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1682,14 +1691,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1698,14 +1707,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1715,14 +1724,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1731,14 +1740,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1748,14 +1757,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1764,14 +1773,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1781,14 +1790,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1797,28 +1806,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -1830,20 +1839,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1876,7 +1885,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1909,7 +1918,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1924,38 +1933,71 @@
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>2243.8899999999999</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>109</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>22</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>55</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>110</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>111</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c t="s" r="Q36" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>2267.6500000000001</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>112</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>113</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>114</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2109,10 +2151,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -86,6 +86,12 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CERELAC رز و حديد</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>CLINDAM 300 MG 16 CAPS.</t>
   </si>
   <si>
@@ -137,6 +143,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -176,9 +191,6 @@
     <t xml:space="preserve">MORALACT  TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -227,6 +239,15 @@
     <t>37.9200</t>
   </si>
   <si>
+    <t>SITAGLIFORM50\1000 TAB</t>
+  </si>
+  <si>
+    <t>207.00</t>
+  </si>
+  <si>
+    <t>68.3100</t>
+  </si>
+  <si>
     <t>TERA GLOW DAY CARE CREAM</t>
   </si>
   <si>
@@ -347,7 +368,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 1:35 PM</t>
+    <t>Tuesday, 16 September, 2025 2:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1087,24 +1108,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1113,14 +1134,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1130,14 +1151,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1146,14 +1167,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1163,14 +1184,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1179,14 +1200,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1196,14 +1217,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1212,14 +1233,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1229,11 +1250,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>20</v>
@@ -1252,7 +1273,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1266,10 +1287,10 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1278,14 +1299,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1295,11 +1316,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1311,14 +1332,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1328,14 +1349,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1344,14 +1365,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1361,11 +1382,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1377,14 +1398,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1394,11 +1415,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1410,28 +1431,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1443,14 +1464,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1460,11 +1481,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1476,28 +1497,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1509,28 +1530,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1542,14 +1563,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1559,11 +1580,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1575,7 +1596,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1588,15 +1609,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -1608,31 +1629,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1641,31 +1662,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1674,28 +1695,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -1707,31 +1728,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1740,14 +1761,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1757,11 +1778,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -1773,14 +1794,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1790,14 +1811,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1806,14 +1827,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1823,14 +1844,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1839,28 +1860,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -1872,31 +1893,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1905,28 +1926,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -1938,66 +1959,165 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>110</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>22</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>26</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>111</v>
       </c>
-      <c t="s" r="Q36" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>2267.6500000000001</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
         <v>112</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c t="s" r="Q37" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>113</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>22</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>26</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>114</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>116</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>22</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>26</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>117</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>2404.6700000000001</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>119</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>120</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>121</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2156,10 +2276,25 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -62,6 +62,24 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AVOBEANO CAPS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CAL-PREG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -71,15 +89,9 @@
     <t>99.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CANDALKAN 4MG 14 TABLETS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -89,15 +101,9 @@
     <t>CERELAC رز و حديد</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>CLINDAM 300 MG 16 CAPS.</t>
   </si>
   <si>
-    <t>75.00</t>
-  </si>
-  <si>
     <t>37.5000</t>
   </si>
   <si>
@@ -119,24 +125,27 @@
     <t>DICLOPRO 150 MG ID 20 TABS.</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>106.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
     <t>180.00</t>
   </si>
   <si>
@@ -161,6 +170,15 @@
     <t>27.7200</t>
   </si>
   <si>
+    <t>GOUTYLESS 30 TABS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
   </si>
   <si>
@@ -212,15 +230,6 @@
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
     <t>PIO WELL GEL</t>
   </si>
   <si>
@@ -230,6 +239,15 @@
     <t>170.0000</t>
   </si>
   <si>
+    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
@@ -368,7 +386,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 2:10 PM</t>
+    <t>Tuesday, 16 September, 2025 2:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1042,24 +1060,24 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1068,14 +1086,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1085,14 +1103,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1101,31 +1119,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1134,31 +1152,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1174,7 +1192,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1184,14 +1202,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1200,14 +1218,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1217,14 +1235,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1233,14 +1251,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1250,14 +1268,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1266,14 +1284,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1283,14 +1301,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1306,7 +1324,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1320,10 +1338,10 @@
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1332,14 +1350,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1372,7 +1390,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1405,7 +1423,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1422,7 +1440,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1438,7 +1456,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1471,7 +1489,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1488,7 +1506,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1504,13 +1522,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1537,7 +1555,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1547,14 +1565,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1563,28 +1581,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1596,31 +1614,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1629,14 +1647,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1646,11 +1664,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1662,31 +1680,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1695,31 +1713,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1728,31 +1746,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1761,31 +1779,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1794,31 +1812,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1827,31 +1845,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1860,14 +1878,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1877,14 +1895,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1893,14 +1911,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1910,14 +1928,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1926,14 +1944,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1943,14 +1961,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1959,31 +1977,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1992,31 +2010,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2025,31 +2043,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2058,66 +2076,165 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>116</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>18</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>19</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>117</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>118</v>
       </c>
-      <c t="s" r="Q39" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>2404.6700000000001</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c t="s" r="Q40" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>119</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>18</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>19</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>120</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>121</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c t="s" r="Q41" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>122</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>18</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>19</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>123</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>2569.23</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>125</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>126</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>127</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2291,10 +2408,25 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -188,6 +188,18 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>MAVILOR 2.5 MG 30 TAB.</t>
   </si>
   <si>
@@ -365,7 +377,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -386,7 +401,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 2:15 PM</t>
+    <t>Tuesday, 16 September, 2025 2:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1522,7 +1537,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1532,14 +1547,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1548,14 +1563,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1565,14 +1580,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1581,31 +1596,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1614,20 +1629,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1638,7 +1653,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1654,7 +1669,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1664,14 +1679,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1680,31 +1695,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1713,31 +1728,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1746,14 +1761,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1763,11 +1778,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1779,7 +1794,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1792,15 +1807,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1812,14 +1827,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1829,14 +1844,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1845,7 +1860,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1862,11 +1877,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>22</v>
@@ -1878,28 +1893,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>22</v>
@@ -1911,14 +1926,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1951,7 +1966,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1961,14 +1976,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1977,14 +1992,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1994,14 +2009,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2034,7 +2049,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2067,7 +2082,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2089,7 +2104,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2116,7 +2131,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2126,11 +2141,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2142,7 +2157,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2159,14 +2174,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2175,7 +2190,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2192,49 +2207,82 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>2569.23</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>125</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
-        <v>126</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>127</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>18</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>19</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>128</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>2639.23</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>130</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>131</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>132</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2423,10 +2471,15 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -401,7 +401,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 2:16 PM</t>
+    <t>Tuesday, 16 September, 2025 2:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -401,7 +401,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 2:18 PM</t>
+    <t>Tuesday, 16 September, 2025 2:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -401,7 +401,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 2:19 PM</t>
+    <t>Tuesday, 16 September, 2025 4:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -401,7 +401,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 4:21 PM</t>
+    <t>Tuesday, 16 September, 2025 4:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -401,7 +401,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 4:22 PM</t>
+    <t>Tuesday, 16 September, 2025 4:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -140,6 +149,18 @@
     <t>78.00</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -239,6 +260,18 @@
     <t>390.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -299,9 +332,6 @@
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -401,7 +431,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 4:24 PM</t>
+    <t>Tuesday, 16 September, 2025 5:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1273,7 +1303,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1283,11 +1313,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1299,14 +1329,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1316,11 +1346,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1332,14 +1362,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1353,10 +1383,10 @@
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1365,14 +1395,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1386,10 +1416,10 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1398,14 +1428,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1438,7 +1468,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1448,11 +1478,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1464,7 +1494,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1481,11 +1511,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1497,14 +1527,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1514,14 +1544,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1530,14 +1560,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1554,7 +1584,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1570,7 +1600,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1587,7 +1617,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1603,7 +1633,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1613,11 +1643,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>22</v>
@@ -1629,28 +1659,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1662,14 +1692,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1702,21 +1732,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1728,28 +1758,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>22</v>
@@ -1761,14 +1791,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1778,11 +1808,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1794,14 +1824,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1811,11 +1841,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1827,14 +1857,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1844,14 +1874,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1860,31 +1890,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1893,31 +1923,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1926,31 +1956,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1959,28 +1989,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -1992,31 +2022,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2025,14 +2055,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2042,7 +2072,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2082,7 +2112,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2098,7 +2128,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2108,14 +2138,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2124,28 +2154,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2157,31 +2187,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2190,28 +2220,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2223,14 +2253,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2251,38 +2281,137 @@
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>2639.23</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>130</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>18</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>19</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
         <v>131</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>132</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c t="s" r="Q44" s="12">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>134</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>18</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>19</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>135</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>137</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>18</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>19</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>138</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2682.6300000000001</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>140</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>141</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>142</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2476,10 +2605,25 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -98,9 +98,30 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CEFAXONE 500MG I.M. VIAL</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>196.0000</t>
+  </si>
+  <si>
     <t>CERELAC رز و حديد</t>
   </si>
   <si>
+    <t>CETAFEN-N 120ML SUSP.</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CLINDAM 300 MG 16 CAPS.</t>
   </si>
   <si>
@@ -209,6 +230,15 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">IVYCAN SYRUP  120ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -275,6 +305,18 @@
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>PIO WELL GEL</t>
   </si>
   <si>
@@ -323,9 +365,6 @@
     <t>TOP ZED RESMOOTH GEL</t>
   </si>
   <si>
-    <t>49.00</t>
-  </si>
-  <si>
     <t>49.0000</t>
   </si>
   <si>
@@ -341,12 +380,6 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -380,9 +413,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -407,10 +437,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -431,7 +458,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 5:00 PM</t>
+    <t>Tuesday, 16 September, 2025 5:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1204,24 +1231,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1230,31 +1257,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1263,14 +1290,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1280,11 +1307,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>22</v>
@@ -1296,7 +1323,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1313,11 +1340,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1329,14 +1356,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1346,14 +1373,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1369,7 +1396,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1379,11 +1406,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1395,14 +1422,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1416,10 +1443,10 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1428,14 +1455,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1445,11 +1472,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1461,14 +1488,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1482,10 +1509,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1494,14 +1521,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1534,7 +1561,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1544,11 +1571,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1560,7 +1587,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1577,11 +1604,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1593,14 +1620,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1610,14 +1637,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1626,14 +1653,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1650,7 +1677,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1666,7 +1693,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1683,7 +1710,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1699,7 +1726,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1732,24 +1759,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1758,14 +1785,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1782,7 +1809,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1798,7 +1825,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1808,14 +1835,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1824,28 +1851,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1857,28 +1884,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>22</v>
@@ -1890,14 +1917,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1907,11 +1934,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1923,14 +1950,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1940,11 +1967,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1956,28 +1983,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1989,7 +2016,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2006,11 +2033,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -2022,31 +2049,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2055,14 +2082,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2072,14 +2099,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2088,31 +2115,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2121,31 +2148,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2154,28 +2181,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2187,14 +2214,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2204,14 +2231,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2220,14 +2247,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2237,11 +2264,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2253,31 +2280,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2286,31 +2313,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>133</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2319,31 +2346,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2352,66 +2379,198 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2682.6300000000001</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>136</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>137</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>19</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>138</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>140</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>18</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>19</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
         <v>141</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>142</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>143</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>18</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>19</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>144</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>146</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>18</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>19</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>147</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>3008.6300000000001</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>149</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>150</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>151</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2620,10 +2779,30 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -458,7 +458,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 5:11 PM</t>
+    <t>Tuesday, 16 September, 2025 5:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -101,318 +101,327 @@
     <t>CEFAXONE 500MG I.M. VIAL</t>
   </si>
   <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CERELAC رز و حديد</t>
+  </si>
+  <si>
+    <t>CETAFEN-N 120ML SUSP.</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CLINDAM 300 MG 16 CAPS.</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GOUTYLESS 30 TABS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVYCAN SYRUP  120ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MAVILOR 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>MAXICAL D SUSPENSION 120 ML</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORALACT  TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>MOVENTOR 20 TABS.</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>390.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>PIO WELL GEL</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
+    <t>RAMETAX 500 MG I.V/I.M VIAL</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
+    <t>SITAGLIFORM50\1000 TAB</t>
+  </si>
+  <si>
+    <t>207.00</t>
+  </si>
+  <si>
+    <t>68.3100</t>
+  </si>
+  <si>
+    <t>TERA GLOW DAY CARE CREAM</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>350.0000</t>
+  </si>
+  <si>
+    <t>TOP ZED RESMOOTH GEL</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>196.0000</t>
-  </si>
-  <si>
-    <t>CERELAC رز و حديد</t>
-  </si>
-  <si>
-    <t>CETAFEN-N 120ML SUSP.</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CLINDAM 300 MG 16 CAPS.</t>
-  </si>
-  <si>
-    <t>37.5000</t>
-  </si>
-  <si>
-    <t>COGINTOL 20 TAB.</t>
-  </si>
-  <si>
-    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DICLOPRO 150 MG ID 20 TABS.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:3</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GOUTYLESS 30 TABS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVYCAN SYRUP  120ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MAVILOR 2.5 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>MAXICAL D SUSPENSION 120 ML</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MORALACT  TAB</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>MOVENTOR 20 TABS.</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>390.00</t>
-  </si>
-  <si>
-    <t>390.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>PIO WELL GEL</t>
-  </si>
-  <si>
-    <t>170.00</t>
-  </si>
-  <si>
-    <t>170.0000</t>
-  </si>
-  <si>
-    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>297.00</t>
-  </si>
-  <si>
-    <t>98.0100</t>
-  </si>
-  <si>
-    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>37.9200</t>
-  </si>
-  <si>
-    <t>SITAGLIFORM50\1000 TAB</t>
-  </si>
-  <si>
-    <t>207.00</t>
-  </si>
-  <si>
-    <t>68.3100</t>
-  </si>
-  <si>
-    <t>TERA GLOW DAY CARE CREAM</t>
-  </si>
-  <si>
-    <t>350.00</t>
-  </si>
-  <si>
-    <t>350.0000</t>
-  </si>
-  <si>
-    <t>TOP ZED RESMOOTH GEL</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>TUSSKAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 100MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>16.3200</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -437,7 +446,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -458,7 +470,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 5:23 PM</t>
+    <t>Tuesday, 16 September, 2025 5:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1248,7 +1260,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -2056,7 +2068,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2073,7 +2085,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2089,7 +2101,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2128,7 +2140,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2155,7 +2167,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2172,7 +2184,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2198,11 +2210,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2214,28 +2226,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>22</v>
@@ -2254,7 +2266,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2264,11 +2276,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2287,7 +2299,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2297,14 +2309,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2320,7 +2332,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2330,14 +2342,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2346,14 +2358,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2363,14 +2375,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2379,14 +2391,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2396,14 +2408,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2412,28 +2424,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -2445,14 +2457,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2466,10 +2478,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>142</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2502,7 +2514,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2511,7 +2523,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2528,49 +2540,82 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>3008.6300000000001</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>149</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>150</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>18</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>19</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
         <v>151</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2950.6300000000001</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>153</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>154</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>155</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2799,10 +2844,15 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -80,6 +80,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>BACTICLOR 250MG/5ML SUSP 60 ML</t>
+  </si>
+  <si>
+    <t>136.00</t>
+  </si>
+  <si>
+    <t>136.0000</t>
+  </si>
+  <si>
     <t>CAL-PREG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -119,273 +128,297 @@
     <t>31.00</t>
   </si>
   <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CLINDAM 300 MG 16 CAPS.</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>GOUTYLESS 30 TABS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVYCAN SYRUP  120ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MAVILOR 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>MAXICAL D SUSPENSION 120 ML</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORALACT  TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>MOVENTOR 20 TABS.</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>390.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>PIO WELL GEL</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
+    <t>RAMETAX 500 MG I.V/I.M VIAL</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
+    <t>SELGON 10MG 6 INFANT SUPP.</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>SITAGLIFORM50\1000 TAB</t>
+  </si>
+  <si>
+    <t>207.00</t>
+  </si>
+  <si>
+    <t>68.3100</t>
+  </si>
+  <si>
+    <t>TERA GLOW DAY CARE CREAM</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>350.0000</t>
+  </si>
+  <si>
+    <t>TOP ZED RESMOOTH GEL</t>
+  </si>
+  <si>
+    <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>31.0000</t>
   </si>
   <si>
-    <t>CLINDAM 300 MG 16 CAPS.</t>
-  </si>
-  <si>
-    <t>37.5000</t>
-  </si>
-  <si>
-    <t>COGINTOL 20 TAB.</t>
-  </si>
-  <si>
-    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DICLOPRO 150 MG ID 20 TABS.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:3</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GOUTYLESS 30 TABS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVYCAN SYRUP  120ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MAVILOR 2.5 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>MAXICAL D SUSPENSION 120 ML</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MORALACT  TAB</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>MOVENTOR 20 TABS.</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>390.00</t>
-  </si>
-  <si>
-    <t>390.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>PIO WELL GEL</t>
-  </si>
-  <si>
-    <t>170.00</t>
-  </si>
-  <si>
-    <t>170.0000</t>
-  </si>
-  <si>
-    <t>RAMETAX 500 MG I.V/I.M VIAL</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>297.00</t>
-  </si>
-  <si>
-    <t>98.0100</t>
-  </si>
-  <si>
-    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>37.9200</t>
-  </si>
-  <si>
-    <t>SITAGLIFORM50\1000 TAB</t>
-  </si>
-  <si>
-    <t>207.00</t>
-  </si>
-  <si>
-    <t>68.3100</t>
-  </si>
-  <si>
-    <t>TERA GLOW DAY CARE CREAM</t>
-  </si>
-  <si>
-    <t>350.00</t>
-  </si>
-  <si>
-    <t>350.0000</t>
-  </si>
-  <si>
-    <t>TOP ZED RESMOOTH GEL</t>
-  </si>
-  <si>
-    <t>TUSSKAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -416,6 +449,18 @@
     <t>16.3200</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8256:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -443,13 +488,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>17:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -470,7 +512,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 5:34 PM</t>
+    <t>Tuesday, 16 September, 2025 5:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1177,7 +1219,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1210,7 +1252,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1243,7 +1285,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1253,11 +1295,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>22</v>
@@ -1269,28 +1311,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>22</v>
@@ -1302,7 +1344,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1315,15 +1357,15 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>22</v>
@@ -1342,7 +1384,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1352,14 +1394,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1368,14 +1410,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1385,14 +1427,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1401,14 +1443,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1418,14 +1460,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1434,14 +1476,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1507,7 +1549,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1521,10 +1563,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1533,14 +1575,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1554,10 +1596,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1566,14 +1608,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1583,11 +1625,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1599,14 +1641,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1639,7 +1681,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1672,7 +1714,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1705,7 +1747,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1722,7 +1764,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1738,7 +1780,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1755,7 +1797,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1771,7 +1813,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1781,11 +1823,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>22</v>
@@ -1797,14 +1839,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1814,14 +1856,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1830,14 +1872,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1870,13 +1912,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1903,7 +1945,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1913,11 +1955,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>22</v>
@@ -1929,28 +1971,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1962,14 +2004,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1979,14 +2021,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1995,14 +2037,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2012,7 +2054,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2035,24 +2077,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2061,14 +2103,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2078,14 +2120,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2094,31 +2136,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2127,14 +2169,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2144,14 +2186,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2160,28 +2202,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2193,31 +2235,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2226,28 +2268,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>22</v>
@@ -2259,31 +2301,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2292,28 +2334,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>22</v>
@@ -2325,31 +2367,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2358,14 +2400,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2375,11 +2417,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2398,7 +2440,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2408,14 +2450,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2424,14 +2466,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2441,11 +2483,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -2457,31 +2499,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2490,31 +2532,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>146</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2523,31 +2565,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2556,66 +2598,231 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>150</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>151</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>13</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
         <v>152</v>
       </c>
-      <c t="s" r="Q51" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2950.6300000000001</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
         <v>153</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c t="s" r="Q52" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>154</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
         <v>155</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>19</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>156</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>158</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>18</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>19</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>148</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>161</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>18</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>19</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>162</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>164</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>18</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>19</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>165</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>3237.1900000000001</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>167</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>168</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>169</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2849,10 +3056,35 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>136.0000</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CAL-PREG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -194,9 +206,6 @@
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>180.00</t>
   </si>
   <si>
@@ -512,7 +521,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 5:39 PM</t>
+    <t>Tuesday, 16 September, 2025 5:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1252,7 +1261,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1262,14 +1271,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1278,14 +1287,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1295,11 +1304,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>22</v>
@@ -1311,14 +1320,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1351,21 +1360,21 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>22</v>
@@ -1377,31 +1386,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1417,7 +1426,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1427,14 +1436,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1443,14 +1452,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1460,14 +1469,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1476,14 +1485,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1493,14 +1502,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1509,14 +1518,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1549,7 +1558,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1559,11 +1568,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1575,14 +1584,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1592,14 +1601,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1608,14 +1617,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1625,14 +1634,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1681,7 +1690,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1714,7 +1723,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1747,7 +1756,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1764,7 +1773,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1780,7 +1789,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1797,7 +1806,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1813,7 +1822,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1830,7 +1839,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1879,7 +1888,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1889,11 +1898,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>22</v>
@@ -1905,14 +1914,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1929,7 +1938,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1945,7 +1954,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1962,7 +1971,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1978,13 +1987,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1995,7 +2004,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2011,24 +2020,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2037,14 +2046,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2054,14 +2063,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2077,7 +2086,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2091,7 +2100,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2103,14 +2112,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2120,11 +2129,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2136,20 +2145,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2160,7 +2169,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2182,7 +2191,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2193,7 +2202,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>83</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2209,7 +2218,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2226,7 +2235,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2242,7 +2251,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2275,7 +2284,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2285,14 +2294,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2301,20 +2310,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2325,7 +2334,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2341,7 +2350,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2358,7 +2367,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2384,11 +2393,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2400,28 +2409,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2433,14 +2442,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2450,11 +2459,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2466,14 +2475,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2483,7 +2492,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2506,7 +2515,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2516,14 +2525,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2532,14 +2541,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2549,14 +2558,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2565,14 +2574,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2582,14 +2591,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2598,14 +2607,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2615,14 +2624,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2631,14 +2640,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2648,14 +2657,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2664,28 +2673,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -2697,14 +2706,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2714,14 +2723,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>160</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2747,14 +2756,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>163</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2791,38 +2800,71 @@
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>3237.1900000000001</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>167</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>18</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>19</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
         <v>168</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
         <v>169</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c t="s" r="Q57" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>3263.9200000000001</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>170</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>171</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>172</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3081,10 +3123,15 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -131,6 +131,18 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CERELAC رز و حديد</t>
   </si>
   <si>
@@ -287,6 +299,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>MAXICAL D SUSPENSION 120 ML</t>
   </si>
   <si>
@@ -308,9 +329,6 @@
     <t>MOVENTOR 20 TABS.</t>
   </si>
   <si>
-    <t>0:-1</t>
-  </si>
-  <si>
     <t>390.00</t>
   </si>
   <si>
@@ -356,9 +374,6 @@
     <t>29.00</t>
   </si>
   <si>
-    <t>87.0000</t>
-  </si>
-  <si>
     <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -461,21 +476,21 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8256:0</t>
+    <t>8254:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -497,10 +512,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>17:0</t>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>15:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -521,7 +536,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 5:40 PM</t>
+    <t>Tuesday, 16 September, 2025 6:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1393,21 +1408,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>22</v>
@@ -1419,31 +1434,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1459,7 +1474,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1469,14 +1484,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1485,14 +1500,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1502,14 +1517,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1518,14 +1533,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1535,14 +1550,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1551,14 +1566,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1591,7 +1606,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1601,11 +1616,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1617,14 +1632,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1634,14 +1649,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1650,14 +1665,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1667,14 +1682,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1690,7 +1705,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1700,11 +1715,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1716,14 +1731,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1733,11 +1748,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1749,14 +1764,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1766,11 +1781,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1782,14 +1797,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1799,14 +1814,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1815,14 +1830,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1832,14 +1847,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1848,14 +1863,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1865,14 +1880,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1881,7 +1896,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1898,11 +1913,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>22</v>
@@ -1914,14 +1929,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1954,7 +1969,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1964,14 +1979,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1980,14 +1995,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1997,14 +2012,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2013,31 +2028,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2046,14 +2061,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2086,17 +2101,17 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2119,7 +2134,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2129,14 +2144,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2145,14 +2160,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2162,11 +2177,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2178,31 +2193,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2211,14 +2226,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2235,7 +2250,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2251,13 +2266,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2268,7 +2283,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2284,7 +2299,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2298,10 +2313,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2310,14 +2325,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2327,14 +2342,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2343,28 +2358,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2376,28 +2391,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2409,14 +2424,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2426,14 +2441,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2442,28 +2457,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2475,28 +2490,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -2508,14 +2523,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2525,11 +2540,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2548,7 +2563,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2558,14 +2573,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2591,11 +2606,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -2607,14 +2622,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2624,11 +2639,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2640,14 +2655,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2657,14 +2672,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2673,14 +2688,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2690,14 +2705,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2706,31 +2721,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2739,31 +2754,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>163</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2772,14 +2787,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2789,11 +2804,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>22</v>
@@ -2805,7 +2820,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2822,49 +2837,115 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>169</v>
       </c>
-      <c t="s" r="Q57" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>3263.9200000000001</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>18</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>19</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
         <v>170</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
         <v>171</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c t="s" r="Q58" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>172</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>18</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>19</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>173</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>3318.9200000000001</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>175</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>176</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>177</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3128,10 +3209,20 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -536,7 +536,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 6:11 PM</t>
+    <t>Tuesday, 16 September, 2025 6:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>136.0000</t>
   </si>
   <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -155,9 +167,6 @@
     <t>62.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>CLINDAM 300 MG 16 CAPS.</t>
   </si>
   <si>
@@ -179,78 +188,87 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DICLOPRO 150 MG ID 20 TABS.</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:3</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>43.5600</t>
-  </si>
-  <si>
     <t>GOUTYLESS 30 TABS</t>
   </si>
   <si>
@@ -383,6 +401,12 @@
     <t>98.0100</t>
   </si>
   <si>
+    <t>RONJA CAPSULE 30 CAP.</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
@@ -413,6 +437,15 @@
     <t>68.3100</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
     <t>TERA GLOW DAY CARE CREAM</t>
   </si>
   <si>
@@ -446,9 +479,6 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 100MG 10 SUPP.</t>
   </si>
   <si>
@@ -536,7 +566,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 6:15 PM</t>
+    <t>Tuesday, 16 September, 2025 6:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1293,7 +1323,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1309,7 +1339,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1319,14 +1349,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1335,14 +1365,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1352,11 +1382,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>22</v>
@@ -1368,14 +1398,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1441,21 +1471,21 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>22</v>
@@ -1467,31 +1497,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1507,7 +1537,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1517,14 +1547,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1533,14 +1563,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1550,14 +1580,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1566,14 +1596,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1583,14 +1613,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1606,7 +1636,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1616,11 +1646,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1632,14 +1662,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1672,7 +1702,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1686,10 +1716,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1698,14 +1728,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1715,14 +1745,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1738,7 +1768,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1748,11 +1778,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1764,14 +1794,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1781,11 +1811,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1797,14 +1827,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1814,11 +1844,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1830,14 +1860,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1847,14 +1877,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1863,14 +1893,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1880,14 +1910,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1896,14 +1926,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1913,14 +1943,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1929,7 +1959,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1946,11 +1976,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>22</v>
@@ -1962,14 +1992,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1979,11 +2009,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>22</v>
@@ -1995,14 +2025,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2012,14 +2042,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2028,14 +2058,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2045,14 +2075,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2061,14 +2091,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2078,11 +2108,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
@@ -2094,31 +2124,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2127,31 +2157,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2160,14 +2190,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2177,14 +2207,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2193,14 +2223,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2210,11 +2240,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2226,14 +2256,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2243,11 +2273,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2259,31 +2289,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2292,28 +2322,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>22</v>
@@ -2325,14 +2355,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2342,14 +2372,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2358,14 +2388,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2375,11 +2405,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2391,14 +2421,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2408,14 +2438,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2424,28 +2454,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2457,28 +2487,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2490,14 +2520,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2507,14 +2537,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2523,14 +2553,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2540,14 +2570,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2556,28 +2586,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2589,28 +2619,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -2622,7 +2652,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2639,14 +2669,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2655,14 +2685,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2672,11 +2702,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -2688,14 +2718,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2705,14 +2735,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2721,14 +2751,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2738,14 +2768,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2754,14 +2784,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2771,11 +2801,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -2787,31 +2817,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2820,24 +2850,24 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -2860,13 +2890,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2893,7 +2923,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2903,49 +2933,148 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>3318.9200000000001</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>175</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>176</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>18</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>19</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>166</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
         <v>177</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c t="s" r="Q60" s="12">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>179</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>18</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>19</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>180</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>182</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>18</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>19</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>183</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3411.665</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>185</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>186</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>187</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3219,10 +3348,25 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -566,7 +566,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 6:42 PM</t>
+    <t>Tuesday, 16 September, 2025 6:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -167,6 +167,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>CETAL 1000MG 15 TABS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
     <t>CLINDAM 300 MG 16 CAPS.</t>
   </si>
   <si>
@@ -566,7 +575,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 6:43 PM</t>
+    <t>Tuesday, 16 September, 2025 6:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1570,7 +1579,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1580,11 +1589,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1596,14 +1605,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1613,14 +1622,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1629,14 +1638,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1646,14 +1655,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1669,7 +1678,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1679,11 +1688,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1695,14 +1704,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1735,7 +1744,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1745,14 +1754,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1782,10 +1791,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1794,14 +1803,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1834,7 +1843,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1867,7 +1876,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1877,11 +1886,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1893,14 +1902,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1917,7 +1926,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1926,14 +1935,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1943,14 +1952,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>88</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1966,7 +1975,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1983,7 +1992,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2032,7 +2041,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2042,11 +2051,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>22</v>
@@ -2058,14 +2067,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2082,7 +2091,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2098,7 +2107,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2115,7 +2124,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2131,7 +2140,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2164,13 +2173,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2181,7 +2190,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2197,13 +2206,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2214,7 +2223,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2230,7 +2239,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2240,14 +2249,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2263,7 +2272,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2273,11 +2282,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2289,14 +2298,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2306,11 +2315,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2322,20 +2331,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2346,7 +2355,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2362,13 +2371,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2376,7 +2385,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2388,7 +2397,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2405,14 +2414,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2428,7 +2437,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2438,11 +2447,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2454,14 +2463,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2471,7 +2480,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2494,7 +2503,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2504,14 +2513,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2520,20 +2529,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2544,7 +2553,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2560,13 +2569,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2593,13 +2602,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2610,7 +2619,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2636,11 +2645,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -2652,20 +2661,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2685,14 +2694,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2702,11 +2711,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -2718,14 +2727,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2735,7 +2744,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2758,7 +2767,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2768,14 +2777,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2784,14 +2793,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2801,14 +2810,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2817,14 +2826,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2834,14 +2843,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2850,14 +2859,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2867,14 +2876,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2883,7 +2892,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2900,14 +2909,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>171</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2923,21 +2932,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>22</v>
@@ -2949,14 +2958,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2966,14 +2975,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>178</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2999,14 +3008,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>181</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3043,38 +3052,71 @@
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3411.665</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>185</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>18</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>19</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
         <v>186</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>187</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c t="s" r="Q63" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3425.5250000000001</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>188</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>189</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>190</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3363,10 +3405,15 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -575,7 +575,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 6:44 PM</t>
+    <t>Tuesday, 16 September, 2025 6:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -182,6 +182,18 @@
     <t>37.5000</t>
   </si>
   <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
@@ -254,6 +266,18 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -365,9 +389,6 @@
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>10.5600</t>
   </si>
   <si>
@@ -542,9 +563,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -575,7 +593,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 6:46 PM</t>
+    <t>Tuesday, 16 September, 2025 6:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1645,7 +1663,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1655,14 +1673,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1671,14 +1689,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1688,14 +1706,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1704,14 +1722,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1744,7 +1762,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1754,11 +1772,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1770,14 +1788,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1791,10 +1809,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1803,14 +1821,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1820,14 +1838,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1843,7 +1861,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1853,11 +1871,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1869,14 +1887,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1886,11 +1904,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1902,14 +1920,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1942,7 +1960,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1952,14 +1970,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>88</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1975,7 +1993,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1985,11 +2003,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2001,14 +2019,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2018,14 +2036,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2034,14 +2052,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2051,14 +2069,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2067,14 +2085,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2084,11 +2102,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>22</v>
@@ -2100,14 +2118,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2117,14 +2135,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2133,14 +2151,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2150,11 +2168,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -2166,14 +2184,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2183,14 +2201,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2199,31 +2217,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2232,7 +2250,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2249,11 +2267,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2265,28 +2283,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2298,14 +2316,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2315,14 +2333,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2331,14 +2349,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2348,11 +2366,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2364,31 +2382,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2404,7 +2422,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2414,14 +2432,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2430,31 +2448,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2463,14 +2481,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2480,14 +2498,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2496,14 +2514,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2513,11 +2531,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2529,14 +2547,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2546,14 +2564,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2569,13 +2587,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2602,7 +2620,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2612,14 +2630,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2628,14 +2646,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2645,14 +2663,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2661,31 +2679,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2694,28 +2712,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -2727,28 +2745,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -2760,14 +2778,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2777,11 +2795,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>22</v>
@@ -2793,14 +2811,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2810,14 +2828,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2826,14 +2844,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2843,11 +2861,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>22</v>
@@ -2859,14 +2877,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2876,11 +2894,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2892,14 +2910,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2909,14 +2927,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>171</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2925,7 +2943,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2942,14 +2960,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2958,31 +2976,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>178</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2998,24 +3016,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>181</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3031,7 +3049,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3041,7 +3059,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3074,49 +3092,115 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>187</v>
       </c>
-      <c t="s" r="Q63" s="12">
-        <v>22</v>
-      </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>3425.5250000000001</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>188</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>18</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>19</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
         <v>189</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
         <v>190</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c t="s" r="Q64" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>191</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>18</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>19</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>192</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>3479.5250000000001</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>194</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>195</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>196</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3410,10 +3494,20 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -113,6 +113,15 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>BRIVAFUTAL 100 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>327.00</t>
+  </si>
+  <si>
+    <t>327.0000</t>
+  </si>
+  <si>
     <t>CAL-PREG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -227,6 +236,15 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -257,6 +275,18 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -299,18 +329,9 @@
     <t>43.5600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>GOUTYLESS 30 TABS</t>
   </si>
   <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
     <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
   </si>
   <si>
@@ -500,12 +521,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -548,6 +563,24 @@
     <t>4:0</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>ZANDROS 20 CAPS</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -557,6 +590,15 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>بادي سبلاش ايفا</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
     <t>ترمومتر ديجتال</t>
   </si>
   <si>
@@ -566,6 +608,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -593,7 +644,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 6:51 PM</t>
+    <t>Tuesday, 16 September, 2025 7:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1399,7 +1450,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1432,7 +1483,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1465,7 +1516,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1475,11 +1526,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>22</v>
@@ -1491,14 +1542,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1508,11 +1559,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>22</v>
@@ -1524,28 +1575,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>22</v>
@@ -1557,31 +1608,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1597,7 +1648,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1614,7 +1665,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1630,7 +1681,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1640,11 +1691,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1656,14 +1707,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1673,11 +1724,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1689,14 +1740,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1706,14 +1757,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1722,14 +1773,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1739,14 +1790,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1762,7 +1813,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1772,11 +1823,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1788,14 +1839,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1828,7 +1879,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1838,14 +1889,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1861,7 +1912,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1871,14 +1922,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1887,14 +1938,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1908,10 +1959,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1920,14 +1971,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1960,7 +2011,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1970,14 +2021,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1986,14 +2037,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2003,11 +2054,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2019,14 +2070,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2036,14 +2087,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2052,14 +2103,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2069,14 +2120,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2085,14 +2136,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2109,7 +2160,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2125,7 +2176,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2142,7 +2193,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2158,7 +2209,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2168,14 +2219,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2184,14 +2235,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2201,14 +2252,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2217,7 +2268,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2234,11 +2285,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>22</v>
@@ -2250,14 +2301,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2267,11 +2318,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2283,28 +2334,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2316,14 +2367,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2333,11 +2384,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2349,14 +2400,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2366,14 +2417,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2382,28 +2433,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2415,14 +2466,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2439,7 +2490,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2455,24 +2506,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2481,7 +2532,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2498,14 +2549,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2514,14 +2565,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2531,11 +2582,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2547,7 +2598,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2560,18 +2611,18 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2587,7 +2638,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2601,10 +2652,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2613,14 +2664,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2630,14 +2681,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2646,28 +2697,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2679,14 +2730,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2696,11 +2747,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2712,28 +2763,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -2745,14 +2796,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2762,14 +2813,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2785,7 +2836,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2795,14 +2846,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2811,28 +2862,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -2844,28 +2895,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>22</v>
@@ -2877,14 +2928,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2894,14 +2945,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2910,14 +2961,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2927,11 +2978,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>22</v>
@@ -2943,14 +2994,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2960,14 +3011,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2976,14 +3027,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2993,14 +3044,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3009,14 +3060,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3026,11 +3077,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3042,31 +3093,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3075,31 +3126,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3108,28 +3159,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>22</v>
@@ -3141,66 +3192,297 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>190</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>183</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>13</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>191</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>193</v>
       </c>
-      <c t="s" r="Q65" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>3479.5250000000001</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>114</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>19</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
         <v>194</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>195</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c t="s" r="Q67" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>196</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>197</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>19</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>62</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>199</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>18</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>19</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>200</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>202</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>18</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>19</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>181</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>205</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>18</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>19</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>206</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>208</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>18</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>19</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>209</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>4231.0749999999998</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>211</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>212</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>213</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3504,10 +3786,45 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -245,6 +245,18 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -287,6 +299,18 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -299,9 +323,6 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>44.00</t>
   </si>
   <si>
@@ -353,9 +374,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -428,6 +446,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>PIO WELL GEL</t>
   </si>
   <si>
@@ -473,12 +500,6 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>SITAGLIFORM50\1000 TAB</t>
   </si>
   <si>
@@ -608,6 +629,9 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>دابر املا كيدز زيت</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -644,7 +668,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 7:00 PM</t>
+    <t>Tuesday, 16 September, 2025 7:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1959,7 +1983,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>22</v>
@@ -1971,14 +1995,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1988,14 +2012,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2011,7 +2035,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2021,11 +2045,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2037,14 +2061,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2077,7 +2101,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2087,11 +2111,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2103,14 +2127,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2120,11 +2144,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>22</v>
@@ -2136,14 +2160,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2176,7 +2200,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2193,7 +2217,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2209,7 +2233,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2219,11 +2243,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2235,14 +2259,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2252,14 +2276,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2268,14 +2292,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2285,14 +2309,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2301,14 +2325,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2341,7 +2365,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2358,7 +2382,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2374,7 +2398,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2407,7 +2431,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2424,7 +2448,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2440,13 +2464,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2457,7 +2481,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2506,21 +2530,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2532,14 +2556,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2549,14 +2573,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2565,14 +2589,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2582,11 +2606,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2598,31 +2622,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2631,14 +2655,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2652,10 +2676,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2664,14 +2688,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2681,14 +2705,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2697,7 +2721,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2710,18 +2734,18 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2730,14 +2754,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2747,14 +2771,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2763,14 +2787,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2787,7 +2811,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2803,21 +2827,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2829,14 +2853,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2846,11 +2870,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2862,28 +2886,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -2895,14 +2919,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2912,14 +2936,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2935,7 +2959,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2945,14 +2969,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2961,28 +2985,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>22</v>
@@ -2994,31 +3018,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3027,14 +3051,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3044,14 +3068,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3060,14 +3084,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3077,11 +3101,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3093,14 +3117,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3110,14 +3134,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3126,14 +3150,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3143,14 +3167,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>183</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3159,14 +3183,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3176,11 +3200,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>22</v>
@@ -3192,14 +3216,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3209,11 +3233,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3225,14 +3249,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3242,14 +3266,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3258,28 +3282,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>22</v>
@@ -3291,31 +3315,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3324,28 +3348,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>22</v>
@@ -3357,14 +3381,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3374,14 +3398,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>204</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3390,14 +3414,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3407,11 +3431,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>62</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>22</v>
@@ -3423,14 +3447,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3440,49 +3464,181 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>121</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>207</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>18</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>19</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>208</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>210</v>
       </c>
-      <c t="s" r="Q72" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>4231.0749999999998</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>18</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>19</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>188</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
         <v>211</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
+      <c t="s" r="Q74" s="12">
         <v>212</v>
       </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>213</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>18</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>19</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>214</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>216</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>18</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>19</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>217</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>4384.0749999999998</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>219</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>220</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>221</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3821,10 +3977,30 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -668,7 +668,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 7:12 PM</t>
+    <t>Tuesday, 16 September, 2025 7:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -353,6 +353,18 @@
     <t>GOUTYLESS 30 TABS</t>
   </si>
   <si>
+    <t>HEPATO-FORTE 30 CAPS.</t>
+  </si>
+  <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
   </si>
   <si>
@@ -446,6 +458,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -545,6 +566,9 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>VOLTAREN 100MG 10 SUPP.</t>
   </si>
   <si>
@@ -668,7 +692,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 7:18 PM</t>
+    <t>Tuesday, 16 September, 2025 7:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2332,7 +2356,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2342,14 +2366,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2358,14 +2382,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2375,14 +2399,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2391,14 +2415,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2408,11 +2432,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2424,14 +2448,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2441,14 +2465,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2457,14 +2481,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2474,11 +2498,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2490,14 +2514,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2507,14 +2531,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2523,31 +2547,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2556,7 +2580,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2573,11 +2597,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2589,28 +2613,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2622,14 +2646,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2639,14 +2663,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2655,14 +2679,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2672,11 +2696,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2688,14 +2712,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2705,14 +2729,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2721,31 +2745,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2754,14 +2778,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2771,11 +2795,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -2787,14 +2811,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2804,14 +2828,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2820,7 +2844,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2833,18 +2857,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2860,7 +2884,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2874,10 +2898,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2886,14 +2910,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2903,14 +2927,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2926,21 +2950,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2952,14 +2976,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2969,11 +2993,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2985,28 +3009,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>22</v>
@@ -3018,14 +3042,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3035,14 +3059,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3058,7 +3082,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3068,14 +3092,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3084,28 +3108,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3117,31 +3141,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3150,14 +3174,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3167,14 +3191,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3183,14 +3207,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3200,11 +3224,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>22</v>
@@ -3216,14 +3240,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3233,14 +3257,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3249,14 +3273,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3266,14 +3290,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>190</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3282,14 +3306,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3299,14 +3323,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3315,14 +3339,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3332,14 +3356,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3348,14 +3372,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3365,14 +3389,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3381,31 +3405,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3414,28 +3438,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>22</v>
@@ -3447,31 +3471,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3480,28 +3504,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>22</v>
@@ -3513,14 +3537,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3530,14 +3554,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>212</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3546,14 +3570,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3563,11 +3587,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>62</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>22</v>
@@ -3579,14 +3603,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3596,49 +3620,181 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>215</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>18</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>19</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>216</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
         <v>218</v>
       </c>
-      <c t="s" r="Q76" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>4384.0749999999998</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>18</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>19</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>196</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
         <v>219</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
+      <c t="s" r="Q78" s="12">
         <v>220</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>221</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>18</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>19</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>222</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>224</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>18</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>19</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>225</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>4524.3850000000002</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>227</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>228</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>229</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3997,10 +4153,30 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -692,7 +692,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 7:26 PM</t>
+    <t>Tuesday, 16 September, 2025 7:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -692,7 +692,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 7:27 PM</t>
+    <t>Tuesday, 16 September, 2025 7:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -206,6 +206,18 @@
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
+    <t>COLD CONTROL 20 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
   </si>
   <si>
@@ -566,6 +578,12 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -603,9 +621,6 @@
   </si>
   <si>
     <t>8.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
   </si>
   <si>
     <t>XORAXON 1GM I.M. VIAL</t>
@@ -1861,7 +1876,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1871,11 +1886,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1887,14 +1902,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1927,7 +1942,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1937,11 +1952,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1953,14 +1968,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1970,14 +1985,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1986,14 +2001,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2040,7 +2055,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>22</v>
@@ -2052,14 +2067,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2069,14 +2084,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2092,7 +2107,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2102,11 +2117,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2118,14 +2133,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2175,7 +2190,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2191,7 +2206,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2201,14 +2216,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2217,14 +2232,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2234,14 +2249,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2250,14 +2265,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2274,7 +2289,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2290,7 +2305,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2300,14 +2315,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2316,14 +2331,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2333,14 +2348,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2349,14 +2364,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2366,11 +2381,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2382,14 +2397,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2399,11 +2414,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2415,14 +2430,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2432,14 +2447,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2448,7 +2463,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2465,11 +2480,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>22</v>
@@ -2481,14 +2496,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2498,11 +2513,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2514,14 +2529,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2531,14 +2546,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2547,14 +2562,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2564,14 +2579,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2580,14 +2595,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2597,11 +2612,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2613,31 +2628,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2646,31 +2661,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2679,14 +2694,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2696,14 +2711,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2712,14 +2727,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2729,11 +2744,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2745,14 +2760,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2762,11 +2777,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2785,7 +2800,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2795,14 +2810,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2811,14 +2826,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2828,11 +2843,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -2844,28 +2859,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -2877,28 +2892,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>22</v>
@@ -2910,7 +2925,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2927,14 +2942,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2943,14 +2958,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2960,11 +2975,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2976,14 +2991,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2993,11 +3008,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3009,14 +3024,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3026,14 +3041,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3042,31 +3057,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3075,28 +3090,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3108,31 +3123,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3141,7 +3156,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3158,11 +3173,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>22</v>
@@ -3174,20 +3189,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3207,14 +3222,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3224,11 +3239,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>22</v>
@@ -3240,14 +3255,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3257,14 +3272,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3273,14 +3288,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3290,14 +3305,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3306,14 +3321,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3323,14 +3338,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3339,14 +3354,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3356,14 +3371,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3372,14 +3387,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3389,14 +3404,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3405,14 +3420,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3422,14 +3437,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>198</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3438,14 +3453,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3455,14 +3470,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3471,14 +3486,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3488,14 +3503,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3504,14 +3519,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3544,13 +3559,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3558,10 +3573,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3570,28 +3585,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>22</v>
@@ -3603,14 +3618,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3620,11 +3635,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>22</v>
@@ -3636,14 +3651,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3653,11 +3668,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>22</v>
@@ -3669,14 +3684,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3686,14 +3701,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>220</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3702,7 +3717,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3719,11 +3734,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>22</v>
@@ -3735,7 +3750,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3752,49 +3767,115 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
         <v>226</v>
       </c>
-      <c t="s" r="Q80" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>4524.3850000000002</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>18</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>19</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
         <v>227</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
         <v>228</v>
       </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
+      <c t="s" r="Q81" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>229</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>18</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>19</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>230</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>4558.3850000000002</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>232</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>233</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>234</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4173,10 +4254,20 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -707,7 +707,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 7:34 PM</t>
+    <t>Tuesday, 16 September, 2025 8:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -248,6 +248,18 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
@@ -425,9 +437,6 @@
     <t>MAXICAL D SUSPENSION 120 ML</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -488,6 +497,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>PENDULINE KIDS SHAMPOO 450ML</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
     <t>PIO WELL GEL</t>
   </si>
   <si>
@@ -497,12 +515,33 @@
     <t>170.0000</t>
   </si>
   <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:14</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
     <t>RAMETAX 500 MG I.V/I.M VIAL</t>
   </si>
   <si>
     <t>29.00</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:5</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
     <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -599,6 +638,18 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -698,6 +749,18 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">فرش  فوكس عرض</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مزيل عرق SHALIS حريمي </t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>مزيل عرق SHALIS رجالي</t>
   </si>
   <si>
@@ -705,6 +768,9 @@
   </si>
   <si>
     <t>85.0000</t>
+  </si>
+  <si>
+    <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
     <t>Tuesday, 16 September, 2025 8:11 PM</t>
@@ -2008,7 +2074,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2018,14 +2084,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2034,14 +2100,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2088,7 +2154,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>22</v>
@@ -2100,14 +2166,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2117,14 +2183,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2140,7 +2206,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2150,11 +2216,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2166,14 +2232,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2223,7 +2289,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2239,7 +2305,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2249,14 +2315,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2265,14 +2331,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2282,14 +2348,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2298,14 +2364,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2322,7 +2388,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2338,7 +2404,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2348,14 +2414,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2364,14 +2430,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2381,14 +2447,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2397,14 +2463,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2414,11 +2480,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2430,14 +2496,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2447,11 +2513,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2463,14 +2529,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2480,14 +2546,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2496,7 +2562,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2513,11 +2579,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2529,14 +2595,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2546,11 +2612,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>22</v>
@@ -2562,14 +2628,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2579,14 +2645,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2595,14 +2661,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2612,14 +2678,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2628,14 +2694,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2645,11 +2711,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2661,31 +2727,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2701,13 +2767,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2718,7 +2784,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2734,7 +2800,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2744,14 +2810,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2760,14 +2826,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2777,11 +2843,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2793,14 +2859,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2810,11 +2876,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2826,14 +2892,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2850,7 +2916,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2866,7 +2932,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2899,13 +2965,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2932,7 +2998,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2946,7 +3012,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -2958,31 +3024,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2991,14 +3057,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3008,11 +3074,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3024,14 +3090,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3041,14 +3107,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3057,14 +3123,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3074,14 +3140,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3090,28 +3156,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3123,14 +3189,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3140,11 +3206,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3156,31 +3222,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3189,28 +3255,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>22</v>
@@ -3222,31 +3288,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>46</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3255,14 +3321,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3272,14 +3338,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3288,31 +3354,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3321,31 +3387,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3354,14 +3420,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>190</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3371,14 +3437,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3387,14 +3453,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3404,14 +3470,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3420,14 +3486,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3437,14 +3503,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3453,14 +3519,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3470,11 +3536,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3486,14 +3552,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3503,14 +3569,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>190</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3526,7 +3592,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3536,14 +3602,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3552,14 +3618,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3569,14 +3635,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>130</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3585,14 +3651,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3609,7 +3675,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>22</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3625,24 +3691,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3651,31 +3717,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>62</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3684,28 +3750,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>22</v>
@@ -3717,31 +3783,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3750,31 +3816,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>225</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3783,14 +3849,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3800,11 +3866,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>22</v>
@@ -3816,14 +3882,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3833,49 +3899,313 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>62</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>4558.3850000000002</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>232</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>233</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>236</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>203</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>19</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>133</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>237</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>18</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>19</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>238</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>240</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>18</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>19</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>219</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>243</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>18</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>19</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>244</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>246</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>87</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>19</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>41</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>247</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>22</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>19</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>248</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>250</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>18</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>19</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>251</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>253</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
         <v>234</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>19</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>157</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4957.2049999999999</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>254</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>255</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>256</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4264,10 +4594,50 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
   </si>
   <si>
     <t>4:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>156.00</t>
   </si>
   <si>
@@ -62,6 +74,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>AVOBEANO CAPS</t>
   </si>
   <si>
@@ -77,9 +101,6 @@
     <t>75.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BACTICLOR 250MG/5ML SUSP 60 ML</t>
   </si>
   <si>
@@ -104,9 +125,6 @@
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>81.00</t>
   </si>
   <si>
@@ -221,9 +239,6 @@
     <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
   </si>
   <si>
-    <t>58.00</t>
-  </si>
-  <si>
     <t>29.0000</t>
   </si>
   <si>
@@ -773,7 +788,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 8:11 PM</t>
+    <t>Tuesday, 16 September, 2025 8:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1431,7 +1446,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1440,31 +1455,31 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1473,7 +1488,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1490,14 +1505,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1506,20 +1521,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1530,7 +1545,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1546,7 +1561,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1556,14 +1571,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1572,14 +1587,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1596,7 +1611,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1612,7 +1627,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1629,7 +1644,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1645,7 +1660,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1662,7 +1677,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1678,7 +1693,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1688,14 +1703,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1704,14 +1719,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1721,14 +1736,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1737,31 +1752,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1770,14 +1785,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1787,14 +1802,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1803,31 +1818,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1843,7 +1858,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1853,14 +1868,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1869,14 +1884,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1893,7 +1908,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1909,7 +1924,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1919,14 +1934,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1935,14 +1950,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1952,14 +1967,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1968,14 +1983,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1985,14 +2000,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2001,14 +2016,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2018,14 +2033,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2034,14 +2049,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2051,14 +2066,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2067,14 +2082,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2084,14 +2099,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2100,14 +2115,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2117,14 +2132,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2133,14 +2148,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2150,14 +2165,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2166,14 +2181,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2183,14 +2198,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2199,14 +2214,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2216,14 +2231,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2232,14 +2247,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2249,14 +2264,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2265,14 +2280,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2282,14 +2297,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2298,14 +2313,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2315,14 +2330,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2331,14 +2346,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2348,14 +2363,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2364,14 +2379,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2381,14 +2396,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2397,14 +2412,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2414,14 +2429,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2430,14 +2445,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2447,14 +2462,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2463,14 +2478,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2480,14 +2495,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2496,14 +2511,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2513,14 +2528,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2529,14 +2544,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2546,14 +2561,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2562,14 +2577,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2579,14 +2594,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2595,14 +2610,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2612,14 +2627,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2628,14 +2643,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2645,14 +2660,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2661,14 +2676,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2678,14 +2693,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2694,14 +2709,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2711,14 +2726,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2727,14 +2742,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2744,14 +2759,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2767,13 +2782,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2784,7 +2799,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2800,7 +2815,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2810,14 +2825,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2826,31 +2841,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2866,7 +2881,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2876,14 +2891,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2892,14 +2907,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2909,14 +2924,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2932,7 +2947,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2942,14 +2957,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2958,14 +2973,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2975,14 +2990,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2991,14 +3006,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3008,14 +3023,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3024,31 +3039,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3057,14 +3072,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3074,14 +3089,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3090,31 +3105,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3123,14 +3138,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3140,14 +3155,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3163,7 +3178,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3177,10 +3192,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3189,14 +3204,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3206,14 +3221,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3229,7 +3244,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3246,7 +3261,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3262,7 +3277,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3272,14 +3287,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3295,13 +3310,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3312,7 +3327,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3328,7 +3343,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3338,14 +3353,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3354,31 +3369,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3387,31 +3402,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>46</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3420,31 +3435,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3453,31 +3468,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3486,14 +3501,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3503,14 +3518,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3519,14 +3534,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3536,14 +3551,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3552,14 +3567,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3569,14 +3584,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3585,14 +3600,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3602,14 +3617,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3618,14 +3633,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3635,14 +3650,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3658,7 +3673,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3668,14 +3683,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>101</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3684,14 +3699,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3701,14 +3716,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3717,14 +3732,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3734,14 +3749,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>203</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3750,14 +3765,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3767,14 +3782,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3783,14 +3798,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3800,14 +3815,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3816,14 +3831,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3840,7 +3855,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3856,13 +3871,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -3870,10 +3885,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3882,31 +3897,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>62</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3915,31 +3930,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3948,31 +3963,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>68</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3981,31 +3996,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>219</v>
+        <v>138</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>242</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4014,31 +4029,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4047,31 +4062,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4080,31 +4095,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4113,31 +4128,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>47</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4146,66 +4161,132 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>157</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>158</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4957.2049999999999</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>254</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>255</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>26</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>27</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
         <v>256</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>258</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>239</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>27</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>162</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>5120.2049999999999</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>259</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>260</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>261</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4634,10 +4715,20 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -203,6 +203,15 @@
     <t>13.8600</t>
   </si>
   <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>CLINDAM 300 MG 16 CAPS.</t>
   </si>
   <si>
@@ -419,9 +428,6 @@
     <t>55.00</t>
   </si>
   <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -479,6 +485,9 @@
     <t>10.5600</t>
   </si>
   <si>
+    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -788,7 +797,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 8:13 PM</t>
+    <t>Tuesday, 16 September, 2025 8:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1934,11 +1943,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1950,14 +1959,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1967,11 +1976,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1983,14 +1992,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2000,14 +2009,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2016,14 +2025,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2033,14 +2042,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2049,14 +2058,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2066,11 +2075,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2082,14 +2091,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2099,11 +2108,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2115,14 +2124,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2155,7 +2164,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2165,11 +2174,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2205,7 +2214,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2221,7 +2230,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2231,11 +2240,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2247,14 +2256,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2264,11 +2273,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2301,10 +2310,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2313,14 +2322,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2353,7 +2362,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2363,11 +2372,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2379,14 +2388,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2396,14 +2405,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2412,14 +2421,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2436,7 +2445,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2452,7 +2461,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2469,7 +2478,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2485,7 +2494,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2495,14 +2504,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2511,14 +2520,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2535,7 +2544,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2551,7 +2560,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2561,14 +2570,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2577,14 +2586,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2594,11 +2603,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2610,14 +2619,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2627,11 +2636,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2650,7 +2659,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2667,7 +2676,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2716,7 +2725,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2730,7 +2739,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2742,14 +2751,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2759,14 +2768,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2775,14 +2784,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2792,14 +2801,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2808,14 +2817,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2825,7 +2834,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2848,24 +2857,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2874,31 +2883,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2907,14 +2916,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2924,14 +2933,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2947,7 +2956,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2957,11 +2966,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2973,14 +2982,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2990,14 +2999,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3006,14 +3015,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3023,14 +3032,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3039,14 +3048,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3056,14 +3065,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3072,14 +3081,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3089,11 +3098,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3105,28 +3114,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3138,14 +3147,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3155,14 +3164,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3171,28 +3180,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3204,14 +3213,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3221,11 +3230,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3237,7 +3246,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3254,14 +3263,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3270,14 +3279,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3287,11 +3296,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3303,14 +3312,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3320,11 +3329,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3336,14 +3345,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3353,14 +3362,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3369,28 +3378,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3402,14 +3411,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3419,14 +3428,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3435,14 +3444,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3452,14 +3461,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3468,31 +3477,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3501,28 +3510,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3534,28 +3543,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3574,7 +3583,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3584,14 +3593,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3607,7 +3616,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3617,14 +3626,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3633,14 +3642,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3650,14 +3659,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3673,7 +3682,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3683,14 +3692,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3716,14 +3725,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3732,14 +3741,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3749,14 +3758,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>106</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3765,14 +3774,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3782,14 +3791,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3798,14 +3807,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3815,14 +3824,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>208</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3831,14 +3840,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3848,14 +3857,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3864,14 +3873,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3881,14 +3890,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3897,14 +3906,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3914,11 +3923,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3930,31 +3939,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3963,28 +3972,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>68</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3996,14 +4005,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4013,11 +4022,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>138</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4029,14 +4038,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4046,11 +4055,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>71</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4062,14 +4071,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4079,14 +4088,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>247</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4095,7 +4104,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4112,11 +4121,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4128,14 +4137,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4145,14 +4154,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>48</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4161,14 +4170,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4178,11 +4187,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4194,14 +4203,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4211,11 +4220,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>47</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4227,14 +4236,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4244,49 +4253,115 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>163</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>5120.2049999999999</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>258</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>26</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>27</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
         <v>259</v>
       </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
         <v>260</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c t="s" r="Q93" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>261</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>242</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>27</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>165</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5265.2049999999999</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>262</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>263</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>264</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4725,10 +4800,20 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -44,21 +44,48 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOL 500MG 24 CAPLETS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALKAPRESS 5MG 20 TAB.</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>58.00</t>
   </si>
   <si>
     <t>58.0000</t>
   </si>
   <si>
+    <t>ALVERINSPASM 24 S.G.CAPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -71,15 +98,9 @@
     <t>78.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>210.00</t>
   </si>
   <si>
@@ -113,9 +134,6 @@
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>18.00</t>
   </si>
   <si>
@@ -239,324 +257,342 @@
     <t>2:1</t>
   </si>
   <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
     <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>GOUTYLESS 30 TABS</t>
+  </si>
+  <si>
+    <t>HEPATO-FORTE 30 CAPS.</t>
+  </si>
+  <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVYCAN SYRUP  120ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MAVILOR 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>MAXICAL D SUSPENSION 120 ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORALACT  TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>MOVENTOR 20 TABS.</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>390.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>PENDULINE KIDS SHAMPOO 450ML</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
+    <t>PIO WELL GEL</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:14</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
+    <t>RAMETAX 500 MG I.V/I.M VIAL</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
     <t>29.0000</t>
   </si>
   <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DICLOPRO 150 MG ID 20 TABS.</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>10:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:3</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FERRODUONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>43.5600</t>
-  </si>
-  <si>
-    <t>GOUTYLESS 30 TABS</t>
-  </si>
-  <si>
-    <t>HEPATO-FORTE 30 CAPS.</t>
-  </si>
-  <si>
-    <t>INCONT L.A. 4MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVYCAN SYRUP  120ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MAVILOR 2.5 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>MAXICAL D SUSPENSION 120 ML</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MORALACT  TAB</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>MOVENTOR 20 TABS.</t>
-  </si>
-  <si>
-    <t>390.00</t>
-  </si>
-  <si>
-    <t>390.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>PENDULINE KIDS SHAMPOO 450ML</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>165.0000</t>
-  </si>
-  <si>
-    <t>PIO WELL GEL</t>
-  </si>
-  <si>
-    <t>170.00</t>
-  </si>
-  <si>
-    <t>170.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:14</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>37.6000</t>
-  </si>
-  <si>
-    <t>RAMETAX 500 MG I.V/I.M VIAL</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -635,6 +671,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>URICODROP 80 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -758,10 +803,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>15:0</t>
+    <t>20:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -788,16 +830,13 @@
     <t>مزيل عرق SHALIS رجالي</t>
   </si>
   <si>
-    <t>85.00</t>
-  </si>
-  <si>
     <t>85.0000</t>
   </si>
   <si>
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 8:30 PM</t>
+    <t>Tuesday, 16 September, 2025 8:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1455,7 +1494,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1464,14 +1503,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1481,14 +1520,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1521,7 +1560,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1543,18 +1582,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1563,14 +1602,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1580,14 +1619,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1596,20 +1635,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1620,7 +1659,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1636,7 +1675,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1653,7 +1692,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1669,7 +1708,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1686,7 +1725,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1719,7 +1758,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1735,7 +1774,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1752,7 +1791,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1768,7 +1807,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1778,14 +1817,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1794,14 +1833,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1811,14 +1850,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1827,31 +1866,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1860,14 +1899,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1877,14 +1916,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1893,31 +1932,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1933,7 +1972,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1950,7 +1989,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1966,7 +2005,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1976,14 +2015,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1992,14 +2031,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2016,7 +2055,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2032,7 +2071,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2042,14 +2081,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2058,14 +2097,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2075,14 +2114,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2091,14 +2130,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2108,14 +2147,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2141,14 +2180,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2157,14 +2196,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2174,14 +2213,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2190,14 +2229,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2207,14 +2246,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2223,14 +2262,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2240,14 +2279,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2256,31 +2295,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2289,14 +2328,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2306,14 +2345,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2322,14 +2361,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2339,14 +2378,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2355,14 +2394,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2372,14 +2411,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2388,14 +2427,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2405,14 +2444,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2421,14 +2460,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2438,14 +2477,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2454,14 +2493,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2471,14 +2510,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2487,14 +2526,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2504,14 +2543,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2520,14 +2559,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2537,14 +2576,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2553,14 +2592,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2570,14 +2609,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>109</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2586,14 +2625,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2603,14 +2642,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2619,14 +2658,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2636,14 +2675,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2652,14 +2691,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2669,14 +2708,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2685,7 +2724,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2702,14 +2741,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2718,14 +2757,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2735,14 +2774,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2751,14 +2790,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2768,14 +2807,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2784,14 +2823,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2801,14 +2840,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2817,14 +2856,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2834,14 +2873,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2850,14 +2889,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2867,14 +2906,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2883,31 +2922,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2916,14 +2955,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2933,14 +2972,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2949,14 +2988,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2966,14 +3005,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2982,14 +3021,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2999,14 +3038,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3015,31 +3054,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3055,7 +3094,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3065,14 +3104,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3081,14 +3120,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3098,14 +3137,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3114,14 +3153,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3131,14 +3170,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3147,14 +3186,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3164,14 +3203,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3180,31 +3219,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3213,14 +3252,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3230,14 +3269,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3246,14 +3285,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3263,14 +3302,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3279,14 +3318,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3296,14 +3335,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3312,14 +3351,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3329,14 +3368,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3345,31 +3384,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3378,14 +3417,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3395,14 +3434,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3411,14 +3450,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3428,14 +3467,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3444,31 +3483,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3477,14 +3516,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3494,14 +3533,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3510,31 +3549,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3543,31 +3582,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3583,7 +3622,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3593,14 +3632,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3609,31 +3648,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3642,14 +3681,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3659,14 +3698,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3675,31 +3714,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3708,31 +3747,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3741,14 +3780,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3758,14 +3797,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3774,14 +3813,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3791,14 +3830,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3807,14 +3846,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3824,14 +3863,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3840,14 +3879,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3857,14 +3896,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>65</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3873,14 +3912,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3890,14 +3929,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>88</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>211</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3906,14 +3945,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3923,14 +3962,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>88</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3939,14 +3978,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3956,14 +3995,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3972,14 +4011,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3989,14 +4028,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4005,31 +4044,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4038,31 +4077,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4071,31 +4110,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4104,20 +4143,20 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>245</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4128,7 +4167,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4144,24 +4183,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>250</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4170,31 +4209,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>226</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4203,31 +4242,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>47</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>48</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4236,31 +4275,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4269,31 +4308,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>226</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>147</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4302,66 +4341,264 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5265.2049999999999</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>262</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>263</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>33</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>34</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>242</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q95" s="12">
         <v>264</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>265</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>33</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>34</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>266</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>268</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>104</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>34</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>53</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>269</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>18</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>34</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>270</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>272</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>33</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>34</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>84</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>274</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>257</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>34</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>176</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5523.3450000000003</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>275</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>276</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>277</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4810,10 +5047,40 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -260,6 +260,15 @@
     <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -275,12 +284,6 @@
     <t>5:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
     <t>DICLAC 75 ID 30 TAB</t>
   </si>
   <si>
@@ -554,6 +557,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 20MG 14 E.C. TAB.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>PENDULINE KIDS SHAMPOO 450ML</t>
   </si>
   <si>
@@ -695,6 +707,9 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>VOLTAREN 100MG 10 SUPP.</t>
   </si>
   <si>
@@ -749,12 +764,6 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
     <t>ZANDROS 20 CAPS</t>
   </si>
   <si>
@@ -782,15 +791,18 @@
     <t>ترمومتر ديجتال</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
     <t>دابر املا كيدز زيت</t>
   </si>
   <si>
+    <t>زيت فاتيكا كبير 180 مل</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -818,6 +830,12 @@
     <t xml:space="preserve">فرش  فوكس عرض</t>
   </si>
   <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">مزيل عرق SHALIS حريمي </t>
   </si>
   <si>
@@ -836,7 +854,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 8:49 PM</t>
+    <t>Tuesday, 16 September, 2025 8:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2236,7 +2254,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2269,7 +2287,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2279,11 +2297,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2295,28 +2313,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2328,28 +2346,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2361,14 +2379,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2378,11 +2396,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2394,14 +2412,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2411,14 +2429,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2427,14 +2445,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2444,11 +2462,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2460,14 +2478,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2477,11 +2495,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2493,14 +2511,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2510,14 +2528,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2526,14 +2544,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2543,11 +2561,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2559,14 +2577,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2576,11 +2594,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2592,14 +2610,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2609,14 +2627,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2625,14 +2643,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2642,14 +2660,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2658,14 +2676,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2675,14 +2693,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2691,14 +2709,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2708,14 +2726,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2724,14 +2742,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2741,14 +2759,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2757,14 +2775,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2774,14 +2792,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2797,7 +2815,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2807,11 +2825,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2830,7 +2848,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2840,11 +2858,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2856,14 +2874,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2873,14 +2891,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2889,7 +2907,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2906,11 +2924,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2922,14 +2940,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2939,11 +2957,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2955,14 +2973,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2972,14 +2990,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2988,14 +3006,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3005,14 +3023,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3021,14 +3039,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3038,11 +3056,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3054,31 +3072,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3087,31 +3105,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3120,14 +3138,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3137,14 +3155,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3153,14 +3171,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3170,14 +3188,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3193,7 +3211,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3203,14 +3221,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3226,7 +3244,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3236,14 +3254,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3252,14 +3270,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3269,14 +3287,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3285,14 +3303,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3302,14 +3320,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3318,14 +3336,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3335,11 +3353,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3351,14 +3369,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3368,11 +3386,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3384,7 +3402,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3397,15 +3415,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3417,14 +3435,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3434,14 +3452,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3450,28 +3468,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3483,14 +3501,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3500,11 +3518,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3516,7 +3534,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3533,14 +3551,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3549,14 +3567,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3566,11 +3584,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3582,14 +3600,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3599,11 +3617,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3615,14 +3633,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3632,14 +3650,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3648,28 +3666,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3681,14 +3699,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3698,14 +3716,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3714,14 +3732,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3731,14 +3749,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3747,31 +3765,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>58</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3787,21 +3805,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>57</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3813,28 +3831,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3846,14 +3864,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3863,14 +3881,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>57</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3879,14 +3897,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3896,14 +3914,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3919,7 +3937,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3929,11 +3947,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>88</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3945,14 +3963,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3962,14 +3980,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3978,14 +3996,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3995,14 +4013,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4011,14 +4029,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4028,14 +4046,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4044,14 +4062,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4061,14 +4079,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4077,14 +4095,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4094,14 +4112,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4110,14 +4128,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4127,14 +4145,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>226</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4143,14 +4161,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4160,14 +4178,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4176,14 +4194,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4193,14 +4211,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>148</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4209,14 +4227,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4226,11 +4244,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4242,31 +4260,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4275,28 +4293,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4308,14 +4326,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4325,11 +4343,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>147</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>148</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4341,14 +4359,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4358,11 +4376,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4374,14 +4392,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4391,14 +4409,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>242</v>
+        <v>148</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>264</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4407,14 +4425,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4424,11 +4442,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4440,14 +4458,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4457,11 +4475,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>54</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4473,14 +4491,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4490,14 +4508,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4506,7 +4524,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4523,11 +4541,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>84</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4539,14 +4557,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>257</v>
+        <v>105</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4556,49 +4574,181 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>273</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>33</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>34</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>274</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>275</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>18</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>34</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>276</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>278</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>33</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>34</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>87</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>280</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>232</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>34</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
         <v>177</v>
       </c>
-      <c t="s" r="Q100" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5523.3450000000003</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>275</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>276</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>277</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>5672.2250000000004</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>281</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>282</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>283</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5077,10 +5227,30 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -176,6 +176,18 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
     <t>CEFAXONE 500MG I.M. VIAL</t>
   </si>
   <si>
@@ -767,9 +779,6 @@
     <t>ZANDROS 20 CAPS</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -854,7 +863,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 8:59 PM</t>
+    <t>Tuesday, 16 September, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1908,7 +1917,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1957,21 +1966,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
@@ -1983,31 +1992,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2016,14 +2025,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2033,14 +2042,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2049,14 +2058,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2066,11 +2075,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2082,7 +2091,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2099,11 +2108,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2115,14 +2124,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2132,7 +2141,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -2155,7 +2164,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2165,14 +2174,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2214,14 +2223,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2231,14 +2240,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2247,14 +2256,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2264,14 +2273,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2280,14 +2289,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2297,11 +2306,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2313,14 +2322,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2330,11 +2339,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2346,28 +2355,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2379,28 +2388,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2412,14 +2421,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2452,7 +2461,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2462,14 +2471,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2478,14 +2487,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2532,7 +2541,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2544,14 +2553,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2561,14 +2570,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2584,7 +2593,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2594,11 +2603,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2610,14 +2619,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2627,11 +2636,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2643,14 +2652,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2660,14 +2669,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2683,7 +2692,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2693,14 +2702,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2709,14 +2718,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2726,14 +2735,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2742,14 +2751,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2766,7 +2775,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2782,7 +2791,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2792,14 +2801,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2808,14 +2817,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2825,14 +2834,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2841,14 +2850,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2858,11 +2867,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2874,14 +2883,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2891,11 +2900,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2907,14 +2916,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2924,14 +2933,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2940,7 +2949,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2957,11 +2966,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2973,14 +2982,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2990,11 +2999,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -3006,14 +3015,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3023,14 +3032,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3039,14 +3048,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3056,14 +3065,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3072,14 +3081,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3089,11 +3098,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3105,31 +3114,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3138,31 +3147,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3171,14 +3180,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3188,14 +3197,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3204,14 +3213,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3221,14 +3230,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3237,14 +3246,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3254,14 +3263,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3270,14 +3279,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3287,14 +3296,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3327,7 +3336,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3343,7 +3352,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3353,14 +3362,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3369,14 +3378,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3386,11 +3395,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3402,14 +3411,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3419,11 +3428,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3435,7 +3444,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3452,11 +3461,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3468,7 +3477,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3481,15 +3490,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3501,20 +3510,20 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3525,7 +3534,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3541,7 +3550,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3551,14 +3560,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3567,14 +3576,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3584,14 +3593,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3600,14 +3609,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3617,11 +3626,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3633,14 +3642,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3650,11 +3659,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3666,14 +3675,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3683,11 +3692,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3699,14 +3708,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3716,14 +3725,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3732,31 +3741,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3765,28 +3774,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3798,31 +3807,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3831,7 +3840,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3848,11 +3857,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3864,28 +3873,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3897,14 +3906,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3914,11 +3923,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3930,14 +3939,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3947,14 +3956,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3963,14 +3972,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3980,14 +3989,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3996,14 +4005,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4013,14 +4022,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4029,14 +4038,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4046,7 +4055,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4062,14 +4071,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4079,14 +4088,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4095,14 +4104,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4112,14 +4121,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>235</v>
+        <v>126</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4152,7 +4161,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4185,7 +4194,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4218,7 +4227,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>230</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4244,14 +4253,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4260,14 +4269,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4277,14 +4286,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4293,14 +4302,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4310,14 +4319,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>57</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4333,13 +4342,13 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>105</v>
+        <v>234</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4366,7 +4375,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>232</v>
+        <v>109</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4376,11 +4385,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4392,14 +4401,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4409,11 +4418,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>149</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4425,14 +4434,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>56</v>
+        <v>234</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4442,11 +4451,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>152</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4458,14 +4467,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4475,11 +4484,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4508,14 +4517,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>54</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>268</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4524,7 +4533,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4541,14 +4550,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q99" s="12">
         <v>271</v>
-      </c>
-      <c t="s" r="Q99" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4564,7 +4573,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4574,11 +4583,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>53</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>54</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4590,14 +4599,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4607,11 +4616,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>53</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4623,14 +4632,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4640,11 +4649,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4663,7 +4672,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4673,11 +4682,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>87</v>
+        <v>279</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4689,14 +4698,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4706,49 +4715,82 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>178</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>5672.2250000000004</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>281</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>282</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>283</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>236</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>34</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>181</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>5691.4250000000002</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>284</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>285</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>286</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5247,10 +5289,15 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -863,7 +863,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 9:07 PM</t>
+    <t>Tuesday, 16 September, 2025 9:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>ALKAPRESS 5MG 20 TAB.</t>
   </si>
   <si>
@@ -176,6 +191,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CARLA EXTRA 30 TAB</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -350,9 +374,6 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -476,9 +497,6 @@
     <t>MAVILOR 2.5 MG 30 TAB.</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
@@ -542,9 +560,6 @@
     <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>160.00</t>
   </si>
   <si>
@@ -683,6 +698,15 @@
     <t>350.0000</t>
   </si>
   <si>
+    <t>TIRATAM XR 750MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>148.0000</t>
+  </si>
+  <si>
     <t>TOP ZED RESMOOTH GEL</t>
   </si>
   <si>
@@ -824,7 +848,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>20:0</t>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>23:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -863,7 +890,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 9:11 PM</t>
+    <t>Tuesday, 16 September, 2025 9:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1554,7 +1581,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1563,14 +1590,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1580,14 +1607,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1596,14 +1623,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1613,11 +1640,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1629,14 +1656,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1646,11 +1673,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1662,20 +1689,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1686,7 +1713,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1702,24 +1729,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1728,14 +1755,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1745,14 +1772,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1761,14 +1788,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1778,14 +1805,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1794,14 +1821,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1811,14 +1838,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1827,14 +1854,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1844,14 +1871,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1860,14 +1887,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1877,14 +1904,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1893,14 +1920,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1910,14 +1937,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1926,14 +1953,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1950,7 +1977,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1983,7 +2010,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1999,24 +2026,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2025,14 +2052,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2042,14 +2069,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2058,31 +2085,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2091,14 +2118,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2108,14 +2135,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2124,14 +2151,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2141,11 +2168,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2157,14 +2184,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2174,11 +2201,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2190,14 +2217,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2207,14 +2234,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2223,14 +2250,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2240,11 +2267,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2256,14 +2283,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2273,14 +2300,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2289,14 +2316,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2306,11 +2333,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2322,14 +2349,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2339,14 +2366,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2355,14 +2382,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2372,11 +2399,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2388,28 +2415,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2421,14 +2448,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2438,11 +2465,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2454,28 +2481,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2487,14 +2514,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2504,14 +2531,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2520,14 +2547,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2537,14 +2564,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2553,14 +2580,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2574,10 +2601,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2586,14 +2613,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2603,14 +2630,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2619,14 +2646,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2636,14 +2663,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2669,11 +2696,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2685,14 +2712,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2702,14 +2729,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2718,14 +2745,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2735,11 +2762,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2758,7 +2785,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2768,14 +2795,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2784,14 +2811,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2824,7 +2851,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2841,7 +2868,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2857,7 +2884,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2867,11 +2894,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2883,14 +2910,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2900,14 +2927,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2916,14 +2943,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2933,11 +2960,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2949,14 +2976,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2966,14 +2993,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2982,14 +3009,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2999,14 +3026,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3015,14 +3042,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3032,14 +3059,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3048,14 +3075,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3065,14 +3092,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3081,14 +3108,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3098,14 +3125,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3114,14 +3141,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3131,14 +3158,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3147,31 +3174,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3180,14 +3207,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3197,14 +3224,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3220,21 +3247,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3246,14 +3273,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3263,14 +3290,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3279,14 +3306,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3296,11 +3323,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3312,14 +3339,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3329,14 +3356,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>80</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3345,14 +3372,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3362,11 +3389,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3378,14 +3405,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3395,14 +3422,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3411,14 +3438,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3428,14 +3455,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3444,14 +3471,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3461,14 +3488,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3477,14 +3504,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3494,14 +3521,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3510,31 +3537,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3543,14 +3570,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3560,14 +3587,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3576,31 +3603,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3609,14 +3636,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3626,11 +3653,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3642,7 +3669,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3659,14 +3686,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3675,14 +3702,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3692,7 +3719,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3715,7 +3742,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3748,7 +3775,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3758,14 +3785,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3781,13 +3808,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3814,7 +3841,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>113</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3824,14 +3851,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3840,31 +3867,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3873,31 +3900,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>62</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3906,31 +3933,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3939,14 +3966,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3956,14 +3983,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3972,31 +3999,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4005,14 +4032,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4029,7 +4056,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4038,14 +4065,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4055,14 +4082,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4071,14 +4098,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>234</v>
+        <v>130</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4088,11 +4115,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4104,14 +4131,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4121,14 +4148,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4137,14 +4164,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4154,14 +4181,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>96</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4187,14 +4214,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>96</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4203,14 +4230,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4220,14 +4247,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4236,14 +4263,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4253,14 +4280,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>234</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4269,14 +4296,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4286,14 +4313,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4302,14 +4329,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4319,11 +4346,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>57</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>153</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4335,14 +4362,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4352,14 +4379,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4368,31 +4395,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>109</v>
+        <v>262</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>192</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4401,31 +4428,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4441,24 +4468,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>152</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>153</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4467,31 +4494,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>164</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4500,31 +4527,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>33</v>
+        <v>244</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>89</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4533,31 +4560,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>271</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4566,31 +4593,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4606,24 +4633,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>53</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>54</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4632,31 +4659,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>82</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4665,31 +4692,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4698,31 +4725,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>282</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4731,66 +4758,165 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>181</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>5691.4250000000002</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>284</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>285</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
-        <v>286</v>
-      </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>287</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>23</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>39</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>288</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>290</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>38</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>39</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>99</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>292</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>244</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>39</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>186</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>6006.4250000000002</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>293</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>294</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>295</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5294,10 +5420,25 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -827,6 +827,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>حلمة ببرونه</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
     <t>دابر املا كيدز زيت</t>
   </si>
   <si>
@@ -869,9 +878,6 @@
     <t>قياس سكر</t>
   </si>
   <si>
-    <t>10.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">مزيل عرق SHALIS حريمي </t>
   </si>
   <si>
@@ -890,7 +896,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 9:24 PM</t>
+    <t>Tuesday, 16 September, 2025 9:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4567,7 +4573,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4577,11 +4583,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>23</v>
@@ -4593,14 +4599,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4610,11 +4616,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>159</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>23</v>
@@ -4626,14 +4632,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4643,11 +4649,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>23</v>
@@ -4676,14 +4682,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>280</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4709,14 +4715,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q103" s="12">
         <v>283</v>
-      </c>
-      <c t="s" r="Q103" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4732,7 +4738,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4742,11 +4748,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>58</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>59</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>23</v>
@@ -4758,14 +4764,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4775,11 +4781,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>58</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>23</v>
@@ -4791,14 +4797,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4808,11 +4814,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>23</v>
@@ -4824,14 +4830,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4841,7 +4847,7 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>99</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -4864,7 +4870,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4874,49 +4880,82 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>294</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>244</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>39</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>186</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
         <v>187</v>
       </c>
-      <c t="s" r="Q108" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>6006.4250000000002</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>293</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>294</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c t="s" r="Q109" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>6016.4250000000002</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
         <v>295</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>296</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>297</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5435,10 +5474,15 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -122,6 +122,15 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>AVOBEANO CAPS</t>
   </si>
   <si>
@@ -494,6 +503,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>MARCAL 30 TABLETS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>MAVILOR 2.5 MG 30 TAB.</t>
   </si>
   <si>
@@ -518,9 +536,6 @@
     <t xml:space="preserve">MORALACT  TAB</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
     <t>45.0000</t>
   </si>
   <si>
@@ -539,6 +554,15 @@
     <t>10.5600</t>
   </si>
   <si>
+    <t xml:space="preserve">NOCHEL  TAB</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
     <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
   </si>
   <si>
@@ -653,9 +677,6 @@
     <t>RONJA CAPSULE 30 CAP.</t>
   </si>
   <si>
-    <t>29.7000</t>
-  </si>
-  <si>
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
@@ -761,13 +782,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>33.6600</t>
+    <t>50.4900</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
@@ -857,10 +875,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>23:0</t>
+    <t>24:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -896,7 +911,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 9:39 PM</t>
+    <t>Tuesday, 16 September, 2025 9:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1735,24 +1750,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1761,20 +1776,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1801,7 +1816,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1834,7 +1849,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1851,7 +1866,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1867,7 +1882,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1884,7 +1899,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1900,7 +1915,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1933,7 +1948,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1966,7 +1981,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1999,7 +2014,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2009,14 +2024,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2025,14 +2040,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2042,14 +2057,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2058,14 +2073,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2075,11 +2090,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>23</v>
@@ -2091,28 +2106,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>23</v>
@@ -2124,31 +2139,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2164,7 +2179,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2181,7 +2196,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2197,7 +2212,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2240,11 +2255,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2256,14 +2271,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2273,11 +2288,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2289,14 +2304,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2306,14 +2321,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2322,14 +2337,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2339,14 +2354,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2355,14 +2370,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2372,14 +2387,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2388,14 +2403,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2405,14 +2420,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2428,7 +2443,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2461,7 +2476,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2471,11 +2486,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2487,28 +2502,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2527,13 +2542,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2560,7 +2575,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2570,11 +2585,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2586,14 +2601,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2610,7 +2625,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2626,7 +2641,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2636,11 +2651,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>23</v>
@@ -2652,14 +2667,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2673,7 +2688,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>23</v>
@@ -2685,14 +2700,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2706,10 +2721,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2718,14 +2733,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2758,7 +2773,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2768,11 +2783,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2784,14 +2799,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2801,14 +2816,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2817,14 +2832,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2841,7 +2856,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2857,7 +2872,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2874,7 +2889,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2890,7 +2905,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2900,14 +2915,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2916,14 +2931,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2940,7 +2955,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2956,7 +2971,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2966,14 +2981,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2982,14 +2997,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2999,11 +3014,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3015,14 +3030,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3032,11 +3047,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3055,7 +3070,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3072,7 +3087,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3088,7 +3103,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3102,7 +3117,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>23</v>
@@ -3114,14 +3129,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3131,11 +3146,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>23</v>
@@ -3154,7 +3169,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3164,14 +3179,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3180,14 +3195,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3197,14 +3212,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3213,14 +3228,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3230,14 +3245,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3246,31 +3261,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3279,7 +3294,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3296,7 +3311,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3319,17 +3334,17 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3362,11 +3377,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>23</v>
@@ -3378,14 +3393,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3395,11 +3410,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3411,31 +3426,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3444,14 +3459,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3461,14 +3476,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3484,7 +3499,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3494,14 +3509,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3510,14 +3525,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3527,14 +3542,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3543,14 +3558,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3560,14 +3575,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3576,14 +3591,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3593,11 +3608,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>23</v>
@@ -3609,28 +3624,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>23</v>
@@ -3642,14 +3657,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3659,14 +3674,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3675,14 +3690,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3692,11 +3707,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>23</v>
@@ -3708,31 +3723,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3741,14 +3756,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3758,11 +3773,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3774,14 +3789,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3791,14 +3806,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3814,7 +3829,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3824,7 +3839,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3847,7 +3862,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3857,14 +3872,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3873,28 +3888,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3906,14 +3921,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3923,11 +3938,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3939,28 +3954,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>23</v>
@@ -3972,31 +3987,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4005,31 +4020,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>69</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4045,21 +4060,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>69</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>23</v>
@@ -4071,14 +4086,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4088,11 +4103,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>23</v>
@@ -4104,31 +4119,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>72</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4137,14 +4152,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4154,14 +4169,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4170,14 +4185,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4187,14 +4202,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>47</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4203,14 +4218,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4220,11 +4235,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>96</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>47</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4236,14 +4251,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4253,14 +4268,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4269,14 +4284,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>246</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4286,14 +4301,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>247</v>
+        <v>99</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>248</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4302,14 +4317,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4319,14 +4334,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>99</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4335,14 +4350,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4352,14 +4367,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>136</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4368,14 +4383,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4385,14 +4400,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>242</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4401,14 +4416,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4418,14 +4433,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4434,14 +4449,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>260</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4451,11 +4466,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>160</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4467,14 +4482,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4491,7 +4506,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>23</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4507,21 +4522,21 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>117</v>
+        <v>268</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>200</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>23</v>
@@ -4533,31 +4548,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4566,28 +4581,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>90</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>23</v>
@@ -4599,28 +4614,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>242</v>
+        <v>120</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>160</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>23</v>
@@ -4639,21 +4654,21 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>92</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>170</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>23</v>
@@ -4672,21 +4687,21 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>23</v>
@@ -4705,24 +4720,24 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>259</v>
+        <v>162</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>283</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4731,28 +4746,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>23</v>
@@ -4764,28 +4779,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>58</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>59</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>23</v>
@@ -4797,31 +4812,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>23</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4837,13 +4852,13 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -4870,21 +4885,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>23</v>
@@ -4896,66 +4911,165 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>244</v>
+        <v>41</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>6016.4250000000002</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>294</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>23</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>42</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
         <v>295</v>
       </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
         <v>296</v>
       </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c t="s" r="Q110" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>297</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>41</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>42</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>102</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>299</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>251</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>42</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>194</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>6478.9549999999999</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>300</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>301</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>302</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5479,10 +5593,25 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -302,6 +302,15 @@
     <t>2:1</t>
   </si>
   <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
   </si>
   <si>
@@ -479,6 +488,12 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
   </si>
   <si>
@@ -767,6 +782,15 @@
     <t>5:0</t>
   </si>
   <si>
+    <t>VILDABETES 50/1000MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t>VOLTAREN 100MG 10 SUPP.</t>
   </si>
   <si>
@@ -911,7 +935,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 9:41 PM</t>
+    <t>Tuesday, 16 September, 2025 9:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2410,7 +2434,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2420,14 +2444,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2436,14 +2460,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2453,14 +2477,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2476,7 +2500,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2509,7 +2533,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2519,11 +2543,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2535,28 +2559,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2575,13 +2599,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2608,7 +2632,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2618,11 +2642,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2634,14 +2658,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2658,7 +2682,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2674,7 +2698,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2684,11 +2708,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>23</v>
@@ -2700,14 +2724,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2721,7 +2745,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>23</v>
@@ -2733,14 +2757,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2754,10 +2778,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2766,14 +2790,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2806,7 +2830,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2816,11 +2840,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2832,14 +2856,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2849,14 +2873,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2865,14 +2889,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2889,7 +2913,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2905,7 +2929,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2922,7 +2946,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2938,7 +2962,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2948,14 +2972,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2964,14 +2988,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2988,7 +3012,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3004,7 +3028,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3014,14 +3038,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3030,14 +3054,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3047,11 +3071,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3063,14 +3087,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3080,11 +3104,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3103,7 +3127,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3120,7 +3144,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3136,7 +3160,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3146,14 +3170,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3169,7 +3193,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3202,7 +3226,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3216,10 +3240,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3228,14 +3252,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3245,14 +3269,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3268,7 +3292,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3285,7 +3309,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3301,7 +3325,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3311,14 +3335,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3334,24 +3358,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3360,7 +3384,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3377,7 +3401,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3400,17 +3424,17 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3433,13 +3457,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3466,7 +3490,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3476,14 +3500,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3492,31 +3516,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3525,14 +3549,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3542,14 +3566,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3565,7 +3589,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3575,11 +3599,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3591,14 +3615,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3608,14 +3632,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3624,14 +3648,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3641,14 +3665,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3657,14 +3681,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3674,11 +3698,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>23</v>
@@ -3690,14 +3714,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3707,11 +3731,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>23</v>
@@ -3723,7 +3747,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3736,15 +3760,15 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>23</v>
@@ -3756,14 +3780,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3773,14 +3797,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3789,28 +3813,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>23</v>
@@ -3822,14 +3846,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3839,11 +3863,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3855,7 +3879,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3872,14 +3896,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3888,14 +3912,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3905,11 +3929,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3921,14 +3945,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3938,11 +3962,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3954,14 +3978,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>226</v>
+        <v>41</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3971,14 +3995,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3994,13 +4018,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -4027,7 +4051,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4037,14 +4061,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4053,14 +4077,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4070,14 +4094,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4086,14 +4110,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4103,14 +4127,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4119,7 +4143,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4136,11 +4160,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>72</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>23</v>
@@ -4152,14 +4176,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4169,11 +4193,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>72</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>73</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>23</v>
@@ -4185,28 +4209,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>23</v>
@@ -4218,14 +4242,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4235,14 +4259,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>72</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4258,7 +4282,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>226</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4268,14 +4292,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4284,14 +4308,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4301,11 +4325,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4317,14 +4341,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4334,14 +4358,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4350,14 +4374,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4367,14 +4391,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4383,14 +4407,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4400,14 +4424,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>102</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4416,14 +4440,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4433,14 +4457,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>257</v>
+        <v>139</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4449,14 +4473,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>260</v>
+        <v>41</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4466,11 +4490,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4482,14 +4506,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4499,14 +4523,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>249</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4515,14 +4539,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>268</v>
+        <v>31</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4532,14 +4556,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>201</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4548,14 +4572,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4565,11 +4589,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>163</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4581,14 +4605,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4598,14 +4622,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>23</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4614,28 +4638,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>120</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>205</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>23</v>
@@ -4647,31 +4671,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4687,21 +4711,21 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>93</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>23</v>
@@ -4720,7 +4744,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>249</v>
+        <v>123</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4730,11 +4754,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>163</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>23</v>
@@ -4746,14 +4770,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>71</v>
+        <v>256</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4763,11 +4787,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>92</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>175</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>23</v>
@@ -4779,14 +4803,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4796,11 +4820,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>23</v>
@@ -4812,14 +4836,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4829,14 +4853,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>265</v>
+        <v>167</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>288</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4845,14 +4869,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4862,11 +4886,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>23</v>
@@ -4885,7 +4909,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4895,11 +4919,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>61</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>62</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>23</v>
@@ -4911,7 +4935,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4928,14 +4952,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>23</v>
+        <v>296</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4944,14 +4968,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4961,11 +4985,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>23</v>
@@ -4977,14 +5001,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4994,11 +5018,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>298</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>23</v>
@@ -5010,14 +5034,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5027,49 +5051,148 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>6478.9549999999999</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>300</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>301</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>302</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>23</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>42</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>303</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>304</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>305</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>41</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>42</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>105</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>306</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>307</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>256</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>42</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>199</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6605.9750000000004</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>308</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>309</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>310</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5608,10 +5731,25 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -935,7 +935,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 9:51 PM</t>
+    <t>Tuesday, 16 September, 2025 9:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -674,10 +674,10 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
-    <t>8:5</t>
-  </si>
-  <si>
-    <t>6.7200</t>
+    <t>8:3</t>
+  </si>
+  <si>
+    <t>20.5800</t>
   </si>
   <si>
     <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
@@ -935,7 +935,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 9:57 PM</t>
+    <t>Tuesday, 16 September, 2025 10:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3936,7 +3936,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -5162,7 +5162,7 @@
     </row>
     <row r="116" ht="25.5" customHeight="1">
       <c r="P116" s="13">
-        <v>6605.9750000000004</v>
+        <v>6619.835</v>
       </c>
       <c r="Q116" s="13"/>
     </row>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -266,6 +266,15 @@
     <t>13.8600</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
@@ -377,6 +386,12 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>DURICEF 250 MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -434,6 +449,9 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -443,6 +461,12 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>FROST GEL 100 GM</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -473,6 +497,12 @@
     <t>43.5600</t>
   </si>
   <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>GOUTYLESS 30 TABS</t>
   </si>
   <si>
@@ -650,6 +680,15 @@
     <t>170.0000</t>
   </si>
   <si>
+    <t>PSYCHOLANZ 6/25 MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>174.00</t>
+  </si>
+  <si>
+    <t>114.8400</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -827,13 +866,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8254:0</t>
+    <t>8252:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>XORAXON 1GM I.M. VIAL</t>
@@ -929,13 +968,10 @@
     <t>مزيل عرق SHALIS رجالي</t>
   </si>
   <si>
-    <t>85.0000</t>
-  </si>
-  <si>
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 10:06 PM</t>
+    <t>Tuesday, 16 September, 2025 10:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2269,7 +2305,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2279,14 +2315,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2312,11 +2348,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2328,14 +2364,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2345,11 +2381,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2361,14 +2397,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2378,14 +2414,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2394,14 +2430,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2411,14 +2447,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2427,14 +2463,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2444,11 +2480,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2467,7 +2503,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2477,14 +2513,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2493,14 +2529,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2510,14 +2546,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2533,7 +2569,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2566,7 +2602,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2576,11 +2612,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2592,28 +2628,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2632,13 +2668,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2665,7 +2701,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2675,11 +2711,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2691,14 +2727,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2715,7 +2751,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2731,7 +2767,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2741,11 +2777,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>23</v>
@@ -2757,14 +2793,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2774,11 +2810,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>23</v>
@@ -2790,14 +2826,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2807,14 +2843,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2823,14 +2859,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2840,14 +2876,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2856,14 +2892,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2873,11 +2909,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2896,7 +2932,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2906,14 +2942,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2922,14 +2958,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2939,11 +2975,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2955,14 +2991,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2972,11 +3008,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>23</v>
@@ -2988,14 +3024,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3005,14 +3041,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3021,14 +3057,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3038,14 +3074,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3054,14 +3090,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3071,14 +3107,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3087,14 +3123,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3104,14 +3140,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3120,14 +3156,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3160,7 +3196,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3170,14 +3206,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3186,7 +3222,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3203,7 +3239,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3226,7 +3262,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3236,14 +3272,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3252,14 +3288,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3269,14 +3305,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3285,14 +3321,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3302,11 +3338,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3318,14 +3354,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3335,14 +3371,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3351,7 +3387,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3368,11 +3404,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>23</v>
@@ -3384,14 +3420,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3401,11 +3437,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>23</v>
@@ -3417,31 +3453,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3450,7 +3486,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3467,14 +3503,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3483,14 +3519,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3500,11 +3536,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3516,7 +3552,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3529,15 +3565,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>23</v>
@@ -3549,7 +3585,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3566,11 +3602,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>23</v>
@@ -3582,28 +3618,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3622,7 +3658,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3632,14 +3668,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3648,14 +3684,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3665,11 +3701,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3681,28 +3717,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>23</v>
@@ -3714,14 +3750,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3731,11 +3767,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>23</v>
@@ -3747,14 +3783,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3764,14 +3800,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3780,14 +3816,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3797,14 +3833,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3813,31 +3849,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3846,14 +3882,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3863,14 +3899,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3879,14 +3915,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3896,11 +3932,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>23</v>
@@ -3912,14 +3948,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3929,14 +3965,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3945,14 +3981,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3962,14 +3998,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3978,7 +4014,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3991,18 +4027,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4011,14 +4047,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4028,14 +4064,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4044,14 +4080,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4061,14 +4097,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4077,31 +4113,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4110,14 +4146,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4127,14 +4163,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4143,31 +4179,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4176,7 +4212,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4193,14 +4229,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4209,31 +4245,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>72</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4242,14 +4278,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4259,11 +4295,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>23</v>
@@ -4275,31 +4311,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4315,7 +4351,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4348,24 +4384,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4374,14 +4410,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4391,14 +4427,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>102</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>50</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4407,31 +4443,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>254</v>
+        <v>41</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4440,14 +4476,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4457,14 +4493,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4473,14 +4509,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4490,14 +4526,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>258</v>
+        <v>135</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4506,14 +4542,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>261</v>
+        <v>141</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4530,7 +4566,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4546,7 +4582,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>31</v>
+        <v>244</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4556,14 +4592,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4572,14 +4608,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>268</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4589,11 +4625,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>105</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4605,14 +4641,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4622,14 +4658,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>105</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>254</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4638,14 +4674,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4655,14 +4691,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4671,14 +4707,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4688,11 +4724,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>68</v>
+        <v>271</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>168</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4704,14 +4740,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4721,11 +4757,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>23</v>
@@ -4737,31 +4773,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4770,31 +4806,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>92</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4803,31 +4839,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>23</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4836,28 +4872,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>23</v>
@@ -4876,24 +4912,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>68</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4902,28 +4938,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>23</v>
@@ -4935,14 +4971,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4952,14 +4988,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>178</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>296</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4975,7 +5011,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4985,11 +5021,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>298</v>
+        <v>95</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>23</v>
@@ -5001,14 +5037,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>123</v>
+        <v>300</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5018,11 +5054,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>61</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>23</v>
@@ -5034,14 +5070,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5051,11 +5087,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>288</v>
+        <v>177</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>23</v>
@@ -5067,14 +5103,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5084,11 +5120,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>304</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>23</v>
@@ -5117,11 +5153,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>105</v>
+        <v>306</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>23</v>
@@ -5133,14 +5169,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>256</v>
+        <v>41</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5150,49 +5186,247 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>199</v>
+        <v>286</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>23</v>
+        <v>309</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6619.835</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>308</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>309</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>310</v>
       </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>41</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>42</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>311</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>313</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>128</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>42</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>61</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>314</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>41</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>42</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>301</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>315</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>23</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>42</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>316</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>318</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>41</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>42</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>108</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>319</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>269</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>42</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>209</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>7047.6750000000002</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>320</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>321</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>322</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5746,10 +5980,40 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -971,7 +971,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 10:07 PM</t>
+    <t>Tuesday, 16 September, 2025 10:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -344,7 +344,13 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:2</t>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>DICLAC 75 ID 30 TAB</t>
@@ -434,9 +440,6 @@
     <t>FERRODUONAL 30 CAP</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -560,9 +563,6 @@
     <t>MAVILOR 2.5 MG 30 TAB.</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -854,13 +854,10 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
-    <t>16.3200</t>
+    <t>32.6400</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -947,7 +944,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t xml:space="preserve">فرش  فوكس عرض</t>
@@ -971,7 +968,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 10:14 PM</t>
+    <t>Tuesday, 16 September, 2025 10:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2649,10 +2646,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2661,7 +2658,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2678,11 +2675,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2694,7 +2691,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2711,11 +2708,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2727,14 +2724,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2744,11 +2741,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2760,7 +2757,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2777,11 +2774,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>23</v>
@@ -2793,14 +2790,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2826,14 +2823,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2843,11 +2840,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>23</v>
@@ -2859,7 +2856,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2876,7 +2873,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2892,14 +2889,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2909,11 +2906,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2925,7 +2922,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2942,11 +2939,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2958,14 +2955,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2975,11 +2972,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2991,14 +2988,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3008,11 +3005,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>23</v>
@@ -3024,7 +3021,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3041,11 +3038,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>23</v>
@@ -3057,7 +3054,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3074,11 +3071,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3090,7 +3087,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3111,7 +3108,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>23</v>
@@ -3123,14 +3120,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3140,11 +3137,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>23</v>
@@ -3156,14 +3153,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3173,11 +3170,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3189,7 +3186,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3206,14 +3203,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>141</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3222,7 +3219,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3243,7 +3240,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>23</v>
@@ -3255,7 +3252,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3272,11 +3269,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3288,7 +3285,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3321,7 +3318,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3338,11 +3335,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3354,14 +3351,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3375,10 +3372,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>141</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3387,7 +3384,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3404,11 +3401,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>23</v>
@@ -3420,7 +3417,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3437,7 +3434,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3453,14 +3450,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3470,11 +3467,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>23</v>
@@ -3486,7 +3483,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3503,11 +3500,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3519,14 +3516,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3540,7 +3537,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3602,7 +3599,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3635,7 +3632,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3701,7 +3698,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3767,11 +3764,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>23</v>
@@ -3800,11 +3797,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3889,7 +3886,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3922,7 +3919,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4071,7 +4068,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>141</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4229,11 +4226,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4252,7 +4249,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4318,7 +4315,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4526,7 +4523,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4549,7 +4546,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4691,14 +4688,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>33</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4813,7 +4810,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4823,14 +4820,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4839,14 +4836,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4856,14 +4853,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4872,14 +4869,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4905,7 +4902,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4926,7 +4923,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4938,7 +4935,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4955,11 +4952,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>23</v>
@@ -4971,14 +4968,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4988,11 +4985,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>23</v>
@@ -5004,7 +5001,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5025,7 +5022,7 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>23</v>
@@ -5037,14 +5034,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5054,7 +5051,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5070,7 +5067,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5087,11 +5084,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>23</v>
@@ -5103,7 +5100,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5120,7 +5117,7 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
@@ -5136,7 +5133,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5153,11 +5150,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>23</v>
@@ -5169,7 +5166,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5186,14 +5183,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5202,7 +5199,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5219,14 +5216,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5235,14 +5232,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5268,7 +5265,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5285,7 +5282,7 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
@@ -5301,7 +5298,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5318,11 +5315,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>23</v>
@@ -5334,7 +5331,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5355,7 +5352,7 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>23</v>
@@ -5367,7 +5364,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5396,13 +5393,13 @@
     </row>
     <row r="122" ht="25.5" customHeight="1">
       <c r="P122" s="13">
-        <v>7047.6750000000002</v>
+        <v>7078.875</v>
       </c>
       <c r="Q122" s="13"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
       <c t="s" r="A123" s="14">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -5410,13 +5407,13 @@
       <c r="E123" s="14"/>
       <c r="F123" s="14"/>
       <c t="s" r="G123" s="15">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
       <c r="J123" s="16"/>
       <c t="s" r="K123" s="17">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L123" s="17"/>
       <c r="M123" s="17"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -131,6 +131,18 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>18.8100</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>AVOBEANO CAPS</t>
   </si>
   <si>
@@ -275,294 +287,312 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CIPROFAR 500MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
     <t>110.00</t>
   </si>
   <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>CLINDAM 300 MG 16 CAPS.</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
+    <t>COLD CONTROL 20 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DURICEF 250 MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>FROST GEL 100 GM</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GOUTYLESS 30 TABS</t>
+  </si>
+  <si>
+    <t>HEPATO-FORTE 30 CAPS.</t>
+  </si>
+  <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVYCAN SYRUP  120ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
     <t>55.0000</t>
   </si>
   <si>
-    <t>CLINDAM 300 MG 16 CAPS.</t>
-  </si>
-  <si>
-    <t>37.5000</t>
-  </si>
-  <si>
-    <t>CLOZAPEX 25MG 50 TAB</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>COGINTOL 20 TAB.</t>
-  </si>
-  <si>
-    <t>COLD CONTROL 20 TAB</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:1</t>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MARCAL 30 TABLETS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>MAVILOR 2.5 MG 30 TAB.</t>
   </si>
   <si>
     <t>23.7600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>DICLAC 75 ID 30 TAB</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>DICLOPRO 150 MG ID 20 TABS.</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>10:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DURICEF 250 MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:3</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FERRODUONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>FROST GEL 100 GM</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>43.5600</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>GOUTYLESS 30 TABS</t>
-  </si>
-  <si>
-    <t>HEPATO-FORTE 30 CAPS.</t>
-  </si>
-  <si>
-    <t>INCONT L.A. 4MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVYCAN SYRUP  120ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MARCAL 30 TABLETS</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
-    <t>MAVILOR 2.5 MG 30 TAB.</t>
-  </si>
-  <si>
     <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -881,6 +911,12 @@
     <t>ZANDROS 20 CAPS</t>
   </si>
   <si>
+    <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
+  </si>
+  <si>
+    <t>40.5000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -944,9 +980,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">فرش  فوكس عرض</t>
   </si>
   <si>
@@ -968,7 +1001,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 10:24 PM</t>
+    <t>Tuesday, 16 September, 2025 10:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1840,24 +1873,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1866,28 +1899,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>23</v>
@@ -1899,14 +1932,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1916,11 +1949,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>23</v>
@@ -1932,14 +1965,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1949,14 +1982,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1965,14 +1998,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1982,14 +2015,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1998,14 +2031,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2015,11 +2048,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>23</v>
@@ -2031,14 +2064,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2048,11 +2081,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>23</v>
@@ -2064,14 +2097,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2081,11 +2114,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>23</v>
@@ -2097,14 +2130,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2121,7 +2154,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2154,7 +2187,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2203,21 +2236,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>23</v>
@@ -2229,31 +2262,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2262,14 +2295,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2279,14 +2312,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2295,14 +2328,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2312,14 +2345,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2328,14 +2361,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2345,14 +2378,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2361,14 +2394,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2378,14 +2411,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2394,14 +2427,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2411,14 +2444,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2427,14 +2460,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2444,14 +2477,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2460,14 +2493,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2477,11 +2510,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2493,14 +2526,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2510,14 +2543,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2526,14 +2559,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2543,14 +2576,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2559,14 +2592,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2576,11 +2609,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2592,14 +2625,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2609,11 +2642,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2625,14 +2658,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2642,14 +2675,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>113</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2665,13 +2698,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2698,7 +2731,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2741,14 +2774,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2757,31 +2790,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2790,14 +2823,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2807,14 +2840,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2847,7 +2880,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2863,7 +2896,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2877,7 +2910,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>23</v>
@@ -2889,14 +2922,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2906,14 +2939,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2922,14 +2955,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2946,7 +2979,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2962,7 +2995,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2972,14 +3005,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2988,14 +3021,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3005,14 +3038,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3021,14 +3054,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3038,14 +3071,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3054,14 +3087,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3071,11 +3104,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3087,14 +3120,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3104,11 +3137,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>23</v>
@@ -3120,14 +3153,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3137,11 +3170,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>23</v>
@@ -3153,14 +3186,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3193,7 +3226,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3203,14 +3236,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>113</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3219,14 +3252,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3236,11 +3269,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>23</v>
@@ -3252,14 +3285,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3269,11 +3302,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3285,14 +3318,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3302,14 +3335,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3318,14 +3351,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3335,14 +3368,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3351,14 +3384,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3368,14 +3401,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3384,14 +3417,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3401,14 +3434,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>56</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3424,7 +3457,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3438,10 +3471,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3450,14 +3483,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3467,14 +3500,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>47</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3490,7 +3523,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3507,7 +3540,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3523,7 +3556,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3533,14 +3566,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3549,14 +3582,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3566,11 +3599,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>23</v>
@@ -3582,7 +3615,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3599,14 +3632,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3615,28 +3648,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3648,14 +3681,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3665,11 +3698,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>23</v>
@@ -3681,14 +3714,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3698,14 +3731,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3714,31 +3747,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3747,7 +3780,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3764,11 +3797,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>23</v>
@@ -3780,14 +3813,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3797,11 +3830,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3813,31 +3846,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>94</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3846,14 +3879,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3863,14 +3896,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3879,14 +3912,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3896,14 +3929,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3919,7 +3952,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3929,14 +3962,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3945,14 +3978,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3962,14 +3995,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3978,14 +4011,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3995,11 +4028,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>23</v>
@@ -4011,28 +4044,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>23</v>
@@ -4044,14 +4077,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4061,14 +4094,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>113</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4077,14 +4110,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4101,7 +4134,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4117,13 +4150,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4150,7 +4183,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4160,14 +4193,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>83</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4183,7 +4216,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4193,11 +4226,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4209,14 +4242,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4226,14 +4259,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4242,14 +4275,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4259,14 +4292,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>87</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4275,14 +4308,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4292,14 +4325,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4308,28 +4341,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4341,14 +4374,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4358,11 +4391,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4374,28 +4407,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>23</v>
@@ -4407,31 +4440,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4440,31 +4473,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4473,28 +4506,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>73</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>23</v>
@@ -4506,14 +4539,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4523,11 +4556,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>137</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>23</v>
@@ -4539,31 +4572,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4572,14 +4605,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4589,14 +4622,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4605,14 +4638,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4622,14 +4655,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4638,14 +4671,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>267</v>
+        <v>43</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4655,11 +4688,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>105</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>50</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4671,14 +4704,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4688,14 +4721,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4704,14 +4737,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4721,11 +4754,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>271</v>
+        <v>115</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>272</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4737,14 +4770,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4754,14 +4787,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>275</v>
+        <v>115</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>276</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4770,14 +4803,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>31</v>
+        <v>279</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4787,14 +4820,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>154</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4810,7 +4843,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>274</v>
+        <v>45</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4827,7 +4860,7 @@
         <v>282</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4860,7 +4893,7 @@
         <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>144</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4876,7 +4909,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>288</v>
+        <v>31</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4886,14 +4919,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>215</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>216</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4902,14 +4935,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>284</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4919,14 +4952,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>68</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>179</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4935,14 +4968,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4952,14 +4985,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>23</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4968,28 +5001,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>130</v>
+        <v>298</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>294</v>
+        <v>225</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>295</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>23</v>
@@ -5001,31 +5034,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>269</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>297</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5034,31 +5067,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>299</v>
+        <v>23</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>56</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>96</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5067,28 +5100,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>178</v>
+        <v>303</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>179</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>23</v>
@@ -5100,28 +5133,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>190</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>23</v>
@@ -5133,28 +5166,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>305</v>
+        <v>102</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>23</v>
@@ -5166,31 +5199,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>41</v>
+        <v>311</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>308</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5199,31 +5232,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5232,28 +5265,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>61</v>
+        <v>315</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>62</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>23</v>
@@ -5265,28 +5298,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>96</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>23</v>
@@ -5298,31 +5331,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>316</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>23</v>
+        <v>320</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5331,31 +5364,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>108</v>
+        <v>322</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>164</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>23</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5364,66 +5397,198 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>269</v>
+        <v>139</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>209</v>
+        <v>65</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>7078.875</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>319</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>320</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
-        <v>321</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>324</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>45</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>46</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>312</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>325</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>23</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>46</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>326</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>327</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>328</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>45</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>46</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>118</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>329</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>279</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>46</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>219</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>7316.9449999999997</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>330</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>331</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>332</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6007,10 +6172,30 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -560,6 +560,12 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">IVYCAN SYRUP  120ML</t>
   </si>
   <si>
@@ -980,6 +986,9 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
     <t xml:space="preserve">فرش  فوكس عرض</t>
   </si>
   <si>
@@ -1001,7 +1010,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 10:27 PM</t>
+    <t>Tuesday, 16 September, 2025 10:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3556,21 +3565,21 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>23</v>
@@ -3582,14 +3591,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3599,11 +3608,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>23</v>
@@ -3615,14 +3624,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3632,14 +3641,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3648,14 +3657,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3665,7 +3674,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3688,7 +3697,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3698,14 +3707,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3714,14 +3723,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3731,7 +3740,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3754,24 +3763,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3787,24 +3796,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3813,14 +3822,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3830,14 +3839,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3853,24 +3862,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3879,28 +3888,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>23</v>
@@ -3912,14 +3921,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3929,14 +3938,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3945,14 +3954,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3962,14 +3971,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>124</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3978,14 +3987,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3995,14 +4004,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4011,14 +4020,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4028,14 +4037,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4044,14 +4053,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4061,11 +4070,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>23</v>
@@ -4077,14 +4086,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4094,11 +4103,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>23</v>
@@ -4110,7 +4119,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4127,11 +4136,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>23</v>
@@ -4143,7 +4152,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4156,15 +4165,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>23</v>
@@ -4176,7 +4185,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4189,18 +4198,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4209,14 +4218,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4226,14 +4235,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4242,14 +4251,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4259,14 +4268,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4275,14 +4284,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4292,14 +4301,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>87</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4308,14 +4317,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4325,14 +4334,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>87</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4341,14 +4350,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4358,11 +4367,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4374,14 +4383,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4391,11 +4400,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4407,14 +4416,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>43</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4424,14 +4433,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4447,24 +4456,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4473,28 +4482,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4506,31 +4515,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4539,7 +4548,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4552,15 +4561,15 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>23</v>
@@ -4572,7 +4581,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4585,15 +4594,15 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>23</v>
@@ -4605,20 +4614,20 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4638,14 +4647,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4655,11 +4664,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>23</v>
@@ -4678,7 +4687,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4688,14 +4697,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>272</v>
+        <v>146</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4704,14 +4713,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>254</v>
+        <v>43</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4721,14 +4730,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>84</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>85</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4737,14 +4746,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4754,14 +4763,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4770,14 +4779,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>277</v>
+        <v>27</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4820,14 +4829,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4843,7 +4852,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4853,14 +4862,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>281</v>
+        <v>154</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>282</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4869,14 +4878,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>284</v>
+        <v>45</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4886,14 +4895,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4902,14 +4911,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>31</v>
+        <v>286</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4919,14 +4928,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4935,14 +4944,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>284</v>
+        <v>31</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4952,14 +4961,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4968,14 +4977,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4985,14 +4994,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>153</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5001,14 +5010,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5018,14 +5027,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>225</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>226</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>23</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5041,7 +5050,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5051,14 +5060,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>72</v>
+        <v>227</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5067,14 +5076,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5084,11 +5093,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5107,7 +5116,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>277</v>
+        <v>23</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5117,14 +5126,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>303</v>
+        <v>56</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5133,28 +5142,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>139</v>
+        <v>279</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>23</v>
@@ -5166,14 +5175,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>279</v>
+        <v>139</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5183,7 +5192,7 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
@@ -5206,7 +5215,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5216,11 +5225,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>312</v>
+        <v>102</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>103</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>23</v>
@@ -5232,14 +5241,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5249,11 +5258,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>23</v>
@@ -5265,14 +5274,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>75</v>
+        <v>279</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5282,11 +5291,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>315</v>
+        <v>189</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>23</v>
@@ -5305,7 +5314,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5319,7 +5328,7 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>318</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>23</v>
@@ -5331,7 +5340,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5348,14 +5357,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>198</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>320</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5381,14 +5390,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>296</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>277</v>
+        <v>322</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5404,7 +5413,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5414,14 +5423,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>65</v>
+        <v>324</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>66</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>23</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5430,14 +5439,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5447,11 +5456,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>312</v>
+        <v>102</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>103</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>23</v>
@@ -5463,14 +5472,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5480,11 +5489,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>326</v>
+        <v>65</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>327</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>23</v>
@@ -5496,7 +5505,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5513,11 +5522,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>118</v>
+        <v>314</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>23</v>
@@ -5529,14 +5538,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>279</v>
+        <v>23</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5546,49 +5555,115 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>7316.9449999999997</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
-        <v>330</v>
-      </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
         <v>331</v>
       </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>45</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>46</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>118</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
         <v>332</v>
       </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>281</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>46</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>221</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>7423.9449999999997</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>333</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>334</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>335</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6192,10 +6267,20 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -1010,7 +1010,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 10:29 PM</t>
+    <t>Tuesday, 16 September, 2025 10:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>ALVERINSPASM 24 S.G.CAPS.</t>
   </si>
   <si>
@@ -245,6 +257,21 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -260,6 +287,9 @@
     <t>CERELAC رز و حديد</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
     <t>CETAFEN-N 120ML SUSP.</t>
   </si>
   <si>
@@ -329,9 +359,6 @@
     <t>COLD CONTROL 20 TAB</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -410,6 +437,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>DOLPHIN 25 MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
@@ -428,9 +467,6 @@
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>52.00</t>
   </si>
   <si>
@@ -485,12 +521,6 @@
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
     <t>FROST GEL 100 GM</t>
   </si>
   <si>
@@ -854,9 +884,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>VILDABETES 50/1000MG 30 TABS.</t>
   </si>
   <si>
@@ -869,9 +896,6 @@
     <t>VOLTAREN 100MG 10 SUPP.</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -986,6 +1010,9 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>15:0</t>
+  </si>
+  <si>
     <t>شمع حريمي</t>
   </si>
   <si>
@@ -995,6 +1022,9 @@
     <t>قياس سكر</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t xml:space="preserve">مزيل عرق SHALIS حريمي </t>
   </si>
   <si>
@@ -1010,7 +1040,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 10:34 PM</t>
+    <t>Tuesday, 16 September, 2025 10:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1816,7 +1846,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1826,11 +1856,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1842,14 +1872,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1859,11 +1889,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1875,14 +1905,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1892,14 +1922,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1915,24 +1945,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1941,28 +1971,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>23</v>
@@ -1974,14 +2004,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1991,11 +2021,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>23</v>
@@ -2007,14 +2037,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2024,14 +2054,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2040,14 +2070,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2057,14 +2087,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2073,14 +2103,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2090,11 +2120,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>23</v>
@@ -2106,14 +2136,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2123,11 +2153,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>23</v>
@@ -2139,14 +2169,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2156,11 +2186,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>23</v>
@@ -2172,14 +2202,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2196,7 +2226,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2229,7 +2259,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2278,24 +2308,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2304,14 +2334,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2321,14 +2351,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2337,7 +2367,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2350,18 +2380,18 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2370,14 +2400,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2387,14 +2417,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2403,14 +2433,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2420,14 +2450,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2436,14 +2466,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2453,14 +2483,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2469,14 +2499,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2486,14 +2516,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2502,14 +2532,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2519,14 +2549,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2535,14 +2565,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2552,11 +2582,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>23</v>
@@ -2568,14 +2598,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2585,11 +2615,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2601,14 +2631,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2618,11 +2648,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2634,14 +2664,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2651,14 +2681,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2667,14 +2697,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2684,14 +2714,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2700,14 +2730,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2717,11 +2747,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2733,14 +2763,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2750,11 +2780,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2766,14 +2796,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2783,14 +2813,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2806,13 +2836,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2839,7 +2869,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2882,14 +2912,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2898,31 +2928,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2931,14 +2961,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2948,14 +2978,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2988,7 +3018,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3004,7 +3034,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3014,14 +3044,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3030,14 +3060,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3047,14 +3077,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3063,14 +3093,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3080,14 +3110,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3103,7 +3133,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3113,14 +3143,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3129,14 +3159,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3146,11 +3176,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>23</v>
@@ -3169,7 +3199,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3179,14 +3209,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3195,14 +3225,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3212,11 +3242,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3228,14 +3258,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3245,14 +3275,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3261,14 +3291,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3278,11 +3308,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>23</v>
@@ -3294,14 +3324,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3311,14 +3341,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3327,14 +3357,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3344,14 +3374,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3360,14 +3390,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3377,11 +3407,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>23</v>
@@ -3393,14 +3423,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3410,14 +3440,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3433,7 +3463,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3443,11 +3473,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3459,14 +3489,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3476,14 +3506,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3492,14 +3522,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3509,14 +3539,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3525,14 +3555,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3542,14 +3572,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3558,31 +3588,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3598,7 +3628,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3615,7 +3645,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3631,7 +3661,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3641,14 +3671,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3657,14 +3687,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3674,14 +3704,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3690,31 +3720,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3723,14 +3753,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3740,11 +3770,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>23</v>
@@ -3756,14 +3786,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3773,7 +3803,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3796,21 +3826,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3822,14 +3852,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3839,14 +3869,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3862,7 +3892,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3872,14 +3902,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3888,24 +3918,24 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3928,24 +3958,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3954,14 +3984,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3971,14 +4001,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3987,14 +4017,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4004,14 +4034,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4020,31 +4050,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4053,14 +4083,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4070,11 +4100,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>23</v>
@@ -4086,14 +4116,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4103,14 +4133,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4119,14 +4149,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4136,14 +4166,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4152,14 +4182,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4169,14 +4199,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4185,28 +4215,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>23</v>
@@ -4218,14 +4248,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4235,14 +4265,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4251,14 +4281,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>239</v>
+        <v>49</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4268,14 +4298,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4284,14 +4314,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4301,11 +4331,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>23</v>
@@ -4317,31 +4347,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>246</v>
+        <v>49</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>87</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4350,14 +4380,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4367,14 +4397,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4383,14 +4413,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4400,11 +4430,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4423,7 +4453,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4440,7 +4470,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4466,14 +4496,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>224</v>
+        <v>97</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4482,28 +4512,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4515,14 +4545,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4532,11 +4562,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4548,31 +4578,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4581,14 +4611,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4598,11 +4628,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>23</v>
@@ -4614,31 +4644,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4654,7 +4684,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4664,14 +4694,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4680,28 +4710,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>146</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>23</v>
@@ -4713,14 +4743,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4730,14 +4760,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4746,31 +4776,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>256</v>
+        <v>49</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4779,14 +4809,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4796,14 +4826,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4812,14 +4842,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>279</v>
+        <v>23</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4829,14 +4859,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>54</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4845,14 +4875,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>281</v>
+        <v>47</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4862,14 +4892,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>154</v>
+        <v>284</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>33</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4878,14 +4908,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4895,14 +4925,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>284</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4911,14 +4941,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>286</v>
+        <v>31</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4928,14 +4958,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>124</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4944,14 +4974,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>31</v>
+        <v>289</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4961,14 +4991,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>124</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4977,14 +5007,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>286</v>
+        <v>83</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4994,14 +5024,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>166</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5010,14 +5040,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>296</v>
+        <v>49</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5027,14 +5057,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5043,14 +5073,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>300</v>
+        <v>143</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5060,11 +5090,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>227</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>228</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>23</v>
@@ -5076,14 +5106,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5093,14 +5123,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>72</v>
+        <v>298</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>190</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5109,14 +5139,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5126,14 +5156,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>56</v>
+        <v>301</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5142,14 +5172,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5166,7 +5196,7 @@
         <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>23</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5182,21 +5212,21 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>139</v>
+        <v>308</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>308</v>
+        <v>237</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>309</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>23</v>
@@ -5208,31 +5238,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5241,31 +5271,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>313</v>
+        <v>23</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>314</v>
+        <v>60</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>103</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5274,28 +5304,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>190</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>23</v>
@@ -5307,28 +5337,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>202</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>23</v>
@@ -5347,21 +5377,21 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>319</v>
+        <v>112</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>23</v>
@@ -5373,31 +5403,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>322</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5413,24 +5443,24 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>324</v>
+        <v>199</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>298</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>279</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5439,28 +5469,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>102</v>
+        <v>325</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>311</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>23</v>
@@ -5479,21 +5509,21 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>65</v>
+        <v>327</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>66</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>23</v>
@@ -5505,31 +5535,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>23</v>
+        <v>330</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5538,31 +5568,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>330</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>23</v>
+        <v>333</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5571,28 +5601,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>172</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>23</v>
@@ -5604,66 +5634,231 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>281</v>
+        <v>86</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>221</v>
+        <v>69</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>7423.9449999999997</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>333</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
-        <v>334</v>
-      </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
-        <v>335</v>
-      </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>336</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>49</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>50</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>322</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>337</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>49</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>50</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>234</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>338</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>23</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>50</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>339</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>340</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>341</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>49</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>50</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>127</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>342</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>83</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>50</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>231</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>7705.3850000000002</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>343</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>344</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>345</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6277,10 +6472,35 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -425,6 +425,18 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -614,6 +626,9 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
     <t>MARCAL 30 TABLETS</t>
   </si>
   <si>
@@ -1040,7 +1055,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 10:40 PM</t>
+    <t>Tuesday, 16 September, 2025 10:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3067,7 +3082,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3077,14 +3092,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3093,14 +3108,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3110,11 +3125,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>23</v>
@@ -3126,14 +3141,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3143,11 +3158,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>23</v>
@@ -3159,14 +3174,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3176,11 +3191,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>23</v>
@@ -3192,14 +3207,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3209,14 +3224,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3232,7 +3247,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3242,11 +3257,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3258,14 +3273,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3275,11 +3290,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3291,14 +3306,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3308,14 +3323,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3331,7 +3346,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3341,11 +3356,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>23</v>
@@ -3357,14 +3372,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3374,14 +3389,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3390,14 +3405,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3407,14 +3422,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3423,14 +3438,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3440,11 +3455,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>23</v>
@@ -3456,14 +3471,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3480,7 +3495,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3496,7 +3511,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3506,14 +3521,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3522,14 +3537,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3539,14 +3554,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3555,14 +3570,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3572,14 +3587,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3588,14 +3603,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3605,11 +3620,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3621,14 +3636,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3638,11 +3653,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3654,14 +3669,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3671,14 +3686,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3687,14 +3702,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3704,14 +3719,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3720,28 +3735,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>23</v>
@@ -3753,28 +3768,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>23</v>
@@ -3786,14 +3801,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3803,11 +3818,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>23</v>
@@ -3819,14 +3834,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3836,14 +3851,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3852,14 +3867,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3869,11 +3884,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3892,7 +3907,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3909,7 +3924,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3925,7 +3940,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3935,14 +3950,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3958,24 +3973,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3984,7 +3999,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4001,7 +4016,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -4024,17 +4039,17 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -4057,13 +4072,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -4090,7 +4105,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4100,14 +4115,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4116,31 +4131,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4149,14 +4164,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>224</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4166,14 +4181,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>111</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4189,7 +4204,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4199,11 +4214,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4215,14 +4230,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4232,14 +4247,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4248,14 +4263,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4265,14 +4280,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4281,14 +4296,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4298,11 +4313,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>23</v>
@@ -4314,14 +4329,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4331,11 +4346,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>23</v>
@@ -4347,7 +4362,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4360,15 +4375,15 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>23</v>
@@ -4380,7 +4395,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4397,14 +4412,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4413,31 +4428,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>249</v>
+        <v>49</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4446,14 +4461,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4463,14 +4478,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4479,14 +4494,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4496,14 +4511,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>97</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4512,7 +4527,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4529,14 +4544,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4545,14 +4560,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>49</v>
+        <v>261</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4562,14 +4577,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4578,14 +4593,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4595,11 +4610,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4611,14 +4626,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>266</v>
+        <v>49</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4628,14 +4643,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4657,7 +4672,7 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4684,7 +4699,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>271</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4694,14 +4709,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4710,14 +4725,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4727,14 +4742,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4743,14 +4758,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4760,14 +4775,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4776,7 +4791,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4793,11 +4808,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>23</v>
@@ -4809,14 +4824,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4826,11 +4841,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>23</v>
@@ -4842,28 +4857,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>23</v>
@@ -4875,14 +4890,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4892,14 +4907,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4915,7 +4930,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>266</v>
+        <v>23</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4925,14 +4940,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>95</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4941,14 +4956,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4958,11 +4973,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>124</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>58</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4974,14 +4989,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4991,14 +5006,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5007,14 +5022,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5024,14 +5039,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5040,14 +5055,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>49</v>
+        <v>294</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5057,11 +5072,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>124</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5073,14 +5088,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5090,14 +5105,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>170</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5106,14 +5121,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5123,14 +5138,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5139,14 +5154,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5156,14 +5171,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5172,14 +5187,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>304</v>
+        <v>35</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5189,14 +5204,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>165</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5205,14 +5220,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>308</v>
+        <v>147</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5222,14 +5237,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>238</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5238,14 +5253,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>309</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5255,14 +5270,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>76</v>
+        <v>310</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>200</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5271,14 +5286,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>23</v>
+        <v>313</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5288,14 +5303,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>60</v>
+        <v>242</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5304,14 +5319,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>289</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5321,14 +5336,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>314</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5344,24 +5359,24 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>60</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5370,24 +5385,24 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>83</v>
+        <v>294</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>112</v>
+        <v>318</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
@@ -5410,7 +5425,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>321</v>
+        <v>86</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5420,11 +5435,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>113</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>23</v>
@@ -5443,7 +5458,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>289</v>
+        <v>83</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5453,11 +5468,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>200</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>23</v>
@@ -5469,14 +5484,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5486,11 +5501,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>23</v>
@@ -5502,14 +5517,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>49</v>
+        <v>294</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5519,11 +5534,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>327</v>
+        <v>203</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>328</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>23</v>
@@ -5542,7 +5557,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5552,14 +5567,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>330</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5589,10 +5604,10 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>212</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>333</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5608,7 +5623,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>266</v>
+        <v>49</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5618,14 +5633,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>112</v>
+        <v>310</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>319</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>23</v>
+        <v>335</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5634,14 +5649,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5651,14 +5666,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>69</v>
+        <v>337</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>70</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>23</v>
+        <v>338</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5667,14 +5682,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>49</v>
+        <v>271</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5684,11 +5699,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>322</v>
+        <v>112</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>113</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>23</v>
@@ -5700,14 +5715,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5717,11 +5732,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>23</v>
@@ -5733,14 +5748,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5750,11 +5765,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>340</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>23</v>
@@ -5766,7 +5781,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5783,11 +5798,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>23</v>
@@ -5799,14 +5814,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5816,49 +5831,115 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>231</v>
+        <v>344</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>232</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>7705.3850000000002</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>343</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
-        <v>344</v>
-      </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
-        <v>345</v>
-      </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>346</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>49</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>50</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>127</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>347</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>83</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>50</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>236</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="P135" s="13">
+        <v>7742.0150000000003</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
+        <v>348</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
+        <v>349</v>
+      </c>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
+        <v>350</v>
+      </c>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6497,10 +6578,20 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -113,6 +113,15 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
     <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -410,9 +419,6 @@
     <t>DICLAC 75 ID 30 TAB</t>
   </si>
   <si>
-    <t>135.00</t>
-  </si>
-  <si>
     <t>44.5500</t>
   </si>
   <si>
@@ -470,6 +476,15 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>DURICEF 250 MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -659,6 +674,12 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MORALACT  TAB</t>
   </si>
   <si>
@@ -809,6 +830,12 @@
     <t>98.0100</t>
   </si>
   <si>
+    <t>RELATROLENE 25 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
     <t>RONJA CAPSULE 30 CAP.</t>
   </si>
   <si>
@@ -866,6 +893,15 @@
     <t>TOP ZED RESMOOTH GEL</t>
   </si>
   <si>
+    <t>TRYPTIZOL 10MG 60 TAB</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>9.9000</t>
+  </si>
+  <si>
     <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -947,6 +983,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>WINZOXIB 90MG 20 TAB</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
@@ -1055,7 +1100,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 10:43 PM</t>
+    <t>Tuesday, 16 September, 2025 10:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1861,7 +1906,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1871,11 +1916,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1887,14 +1932,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1927,7 +1972,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1960,7 +2005,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1977,7 +2022,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1986,31 +2031,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2019,20 +2064,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -2059,7 +2104,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2092,7 +2137,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2109,7 +2154,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2125,7 +2170,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2142,7 +2187,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2158,7 +2203,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2191,7 +2236,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2224,7 +2269,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2257,7 +2302,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2267,14 +2312,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2283,14 +2328,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2300,14 +2345,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2316,14 +2361,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2333,14 +2378,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>86</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2349,14 +2394,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2366,14 +2411,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2382,28 +2427,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>23</v>
@@ -2415,31 +2460,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2448,14 +2493,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2465,14 +2510,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2488,7 +2533,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2505,7 +2550,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2521,7 +2566,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2531,14 +2576,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2554,7 +2599,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2564,7 +2609,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2587,7 +2632,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2620,7 +2665,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2630,14 +2675,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2646,14 +2691,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2663,11 +2708,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2679,14 +2724,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2696,14 +2741,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2712,14 +2757,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2729,14 +2774,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2745,14 +2790,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2762,11 +2807,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2785,7 +2830,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2795,7 +2840,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2818,7 +2863,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2828,14 +2873,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2844,14 +2889,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2861,14 +2906,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2884,7 +2929,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2917,7 +2962,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2927,14 +2972,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2950,24 +2995,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2983,21 +3028,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -3009,14 +3054,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3026,11 +3071,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3042,14 +3087,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3059,11 +3104,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3075,14 +3120,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3092,11 +3137,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3108,14 +3153,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3125,14 +3170,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3141,14 +3186,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3158,11 +3203,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>23</v>
@@ -3181,7 +3226,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3214,7 +3259,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3224,11 +3269,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>23</v>
@@ -3247,7 +3292,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3257,14 +3302,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3273,14 +3318,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3290,14 +3335,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3306,14 +3351,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3323,11 +3368,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3339,14 +3384,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3363,7 +3408,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3379,7 +3424,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3389,14 +3434,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3412,7 +3457,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3422,14 +3467,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3438,14 +3483,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3455,11 +3500,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>23</v>
@@ -3471,14 +3516,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3488,14 +3533,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3504,14 +3549,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3521,14 +3566,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3537,14 +3582,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3554,14 +3599,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3570,14 +3615,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>49</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3587,14 +3632,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3610,7 +3655,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3620,14 +3665,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3636,14 +3681,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3653,14 +3698,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3669,14 +3714,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3686,11 +3731,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3702,14 +3747,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3719,14 +3764,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3742,7 +3787,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3759,7 +3804,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3775,24 +3820,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3808,7 +3853,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3841,21 +3886,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>48</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>23</v>
@@ -3867,14 +3912,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3884,14 +3929,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3900,14 +3945,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3917,14 +3962,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3933,14 +3978,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3950,11 +3995,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3973,7 +4018,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3990,7 +4035,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4006,7 +4051,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4016,14 +4061,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4039,24 +4084,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4065,7 +4110,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4082,7 +4127,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -4105,7 +4150,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4115,14 +4160,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4138,24 +4183,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4164,7 +4209,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4181,11 +4226,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>23</v>
@@ -4197,14 +4242,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4214,11 +4259,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4230,31 +4275,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>229</v>
+        <v>52</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>111</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4263,14 +4308,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4280,14 +4325,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4296,14 +4341,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4313,14 +4358,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4329,14 +4374,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>86</v>
+        <v>236</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4346,14 +4391,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4362,14 +4407,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4379,14 +4424,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4395,14 +4440,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4412,11 +4457,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>23</v>
@@ -4428,28 +4473,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>23</v>
@@ -4461,14 +4506,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4478,14 +4523,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4494,14 +4539,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>52</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4511,14 +4556,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4527,28 +4572,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>23</v>
@@ -4560,14 +4605,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>261</v>
+        <v>52</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4577,14 +4622,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4593,14 +4638,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4610,11 +4655,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4626,14 +4671,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4643,14 +4688,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4666,7 +4711,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>47</v>
+        <v>268</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4676,14 +4721,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>100</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4699,7 +4744,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4709,14 +4754,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4725,28 +4770,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4765,7 +4810,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4775,11 +4820,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>212</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4791,31 +4836,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4824,14 +4869,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>49</v>
+        <v>280</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4841,11 +4886,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>23</v>
@@ -4857,31 +4902,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4890,14 +4935,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4907,14 +4952,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4923,28 +4968,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>23</v>
@@ -4956,14 +5001,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4973,14 +5018,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4989,31 +5034,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>271</v>
+        <v>52</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5022,28 +5067,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>124</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>58</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5055,14 +5100,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5072,14 +5117,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5088,14 +5133,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5105,14 +5150,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>37</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>86</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5121,14 +5166,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5138,11 +5183,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5154,14 +5199,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>147</v>
+        <v>280</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5171,14 +5216,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>97</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5187,14 +5232,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5204,14 +5249,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>303</v>
+        <v>127</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>304</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5227,7 +5272,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>147</v>
+        <v>306</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5237,14 +5282,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>306</v>
+        <v>127</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>307</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5253,14 +5298,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>309</v>
+        <v>86</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5270,14 +5315,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>175</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>311</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>169</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5286,14 +5331,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>313</v>
+        <v>52</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5303,14 +5348,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>242</v>
+        <v>309</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>243</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5319,14 +5364,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5336,14 +5381,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>204</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5352,14 +5397,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5369,14 +5414,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>60</v>
+        <v>315</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
         <v>316</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5392,7 +5437,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>294</v>
+        <v>149</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5409,7 +5454,7 @@
         <v>319</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5425,24 +5470,24 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>86</v>
+        <v>321</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>23</v>
+        <v>174</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5451,31 +5496,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>112</v>
+        <v>325</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5484,28 +5529,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>327</v>
+        <v>249</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>113</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>23</v>
@@ -5517,31 +5562,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>294</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5550,31 +5595,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>330</v>
+        <v>63</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>217</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5583,28 +5628,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>23</v>
@@ -5616,31 +5661,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>215</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>335</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5649,31 +5694,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>337</v>
+        <v>115</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>217</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>338</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5682,28 +5727,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>271</v>
+        <v>341</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>112</v>
+        <v>342</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>324</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>23</v>
@@ -5715,28 +5760,28 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>86</v>
+        <v>306</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>23</v>
@@ -5748,28 +5793,28 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>23</v>
@@ -5781,28 +5826,28 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>239</v>
+        <v>347</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>240</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>23</v>
@@ -5814,31 +5859,31 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>345</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>23</v>
+        <v>350</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5847,31 +5892,31 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>127</v>
+        <v>352</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>23</v>
+        <v>353</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5880,66 +5925,264 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>83</v>
+        <v>280</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>236</v>
+        <v>115</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>237</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
-      <c r="P135" s="13">
-        <v>7742.0150000000003</v>
-      </c>
-      <c r="Q135" s="13"/>
-    </row>
-    <row r="136" ht="16.5" customHeight="1">
-      <c t="s" r="A136" s="14">
-        <v>348</v>
-      </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c t="s" r="G136" s="15">
-        <v>349</v>
-      </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="16"/>
-      <c t="s" r="K136" s="17">
-        <v>350</v>
-      </c>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>355</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>89</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>53</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>72</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>356</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>52</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>53</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>342</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>357</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>52</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>53</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>246</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>358</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>23</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>53</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>359</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>360</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>361</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>52</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>53</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>130</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>362</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>86</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>53</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>243</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="P141" s="13">
+        <v>8165.7349999999997</v>
+      </c>
+      <c r="Q141" s="13"/>
+    </row>
+    <row r="142" ht="16.5" customHeight="1">
+      <c t="s" r="A142" s="14">
+        <v>363</v>
+      </c>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c t="s" r="G142" s="15">
+        <v>364</v>
+      </c>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c t="s" r="K142" s="17">
+        <v>365</v>
+      </c>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17"/>
+      <c r="P142" s="17"/>
+      <c r="Q142" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="652">
+  <mergeCells count="682">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6588,10 +6831,40 @@
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="K136:Q136"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="K142:Q142"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -1100,7 +1100,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 10:46 PM</t>
+    <t>Tuesday, 16 September, 2025 11:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -854,6 +854,9 @@
     <t>9:0</t>
   </si>
   <si>
+    <t>SIRDALUD 4MG 20 TAB</t>
+  </si>
+  <si>
     <t>SITAGLIFORM50\1000 TAB</t>
   </si>
   <si>
@@ -1100,7 +1103,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 11:03 PM</t>
+    <t>Tuesday, 16 September, 2025 11:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4909,24 +4912,24 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>217</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4935,28 +4938,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4968,31 +4971,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5001,7 +5004,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5014,15 +5017,15 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>23</v>
@@ -5034,7 +5037,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5047,15 +5050,15 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>84</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>23</v>
@@ -5074,7 +5077,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5084,14 +5087,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>83</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5100,31 +5103,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>83</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>84</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5140,7 +5143,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5150,11 +5153,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>23</v>
@@ -5166,14 +5169,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5183,14 +5186,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>301</v>
+        <v>167</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5199,14 +5202,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5216,14 +5219,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>97</v>
+        <v>302</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>98</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5239,7 +5242,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5249,14 +5252,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5272,7 +5275,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>306</v>
+        <v>31</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5298,14 +5301,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>86</v>
+        <v>307</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5315,14 +5318,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5338,7 +5341,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5348,14 +5351,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>309</v>
+        <v>175</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>310</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5364,14 +5367,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5381,14 +5384,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5397,14 +5400,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5414,14 +5417,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5430,14 +5433,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5447,14 +5450,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5463,14 +5466,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>321</v>
+        <v>149</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5480,14 +5483,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5496,14 +5499,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>31</v>
+        <v>322</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5513,14 +5516,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5529,14 +5532,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>328</v>
+        <v>31</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5546,14 +5549,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>249</v>
+        <v>326</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>250</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5562,14 +5565,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5579,14 +5582,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5602,7 +5605,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5612,11 +5615,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>331</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5628,14 +5631,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>306</v>
+        <v>23</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5645,14 +5648,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>333</v>
+        <v>63</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5661,28 +5664,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>89</v>
+        <v>307</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>23</v>
@@ -5694,14 +5697,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5711,11 +5714,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>115</v>
+        <v>337</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>23</v>
@@ -5727,14 +5730,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>341</v>
+        <v>86</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5744,11 +5747,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>342</v>
+        <v>115</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>116</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>23</v>
@@ -5760,14 +5763,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5777,11 +5780,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>208</v>
+        <v>343</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>209</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>23</v>
@@ -5800,7 +5803,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>82</v>
+        <v>307</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5810,11 +5813,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>345</v>
+        <v>208</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>23</v>
@@ -5826,14 +5829,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5843,11 +5846,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>348</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>23</v>
@@ -5859,7 +5862,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5876,14 +5879,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>220</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>350</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5892,7 +5895,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5909,14 +5912,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5925,14 +5928,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>280</v>
+        <v>52</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5942,14 +5945,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>115</v>
+        <v>353</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>339</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>23</v>
+        <v>354</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5965,7 +5968,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>89</v>
+        <v>280</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5975,11 +5978,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>73</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>23</v>
@@ -5998,7 +6001,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6008,11 +6011,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>342</v>
+        <v>72</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>23</v>
@@ -6041,11 +6044,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>246</v>
+        <v>343</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>247</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>23</v>
@@ -6064,7 +6067,7 @@
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6074,11 +6077,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>359</v>
+        <v>246</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>360</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>23</v>
@@ -6090,14 +6093,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6107,11 +6110,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>130</v>
+        <v>360</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>191</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>23</v>
@@ -6130,7 +6133,7 @@
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6140,49 +6143,82 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>363</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>86</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>53</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>243</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
         <v>244</v>
       </c>
-      <c t="s" r="Q140" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="141" ht="25.5" customHeight="1">
-      <c r="P141" s="13">
-        <v>8165.7349999999997</v>
-      </c>
-      <c r="Q141" s="13"/>
-    </row>
-    <row r="142" ht="16.5" customHeight="1">
-      <c t="s" r="A142" s="14">
-        <v>363</v>
-      </c>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c t="s" r="G142" s="15">
+      <c t="s" r="Q141" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="P142" s="13">
+        <v>8235.7350000000006</v>
+      </c>
+      <c r="Q142" s="13"/>
+    </row>
+    <row r="143" ht="16.5" customHeight="1">
+      <c t="s" r="A143" s="14">
         <v>364</v>
       </c>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="16"/>
-      <c t="s" r="K142" s="17">
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c t="s" r="G143" s="15">
         <v>365</v>
       </c>
-      <c r="L142" s="17"/>
-      <c r="M142" s="17"/>
-      <c r="N142" s="17"/>
-      <c r="O142" s="17"/>
-      <c r="P142" s="17"/>
-      <c r="Q142" s="17"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c t="s" r="K143" s="17">
+        <v>366</v>
+      </c>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="682">
+  <mergeCells count="687">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6861,10 +6897,15 @@
     <mergeCell ref="H140:K140"/>
     <mergeCell ref="L140:M140"/>
     <mergeCell ref="N140:O140"/>
-    <mergeCell ref="P141:Q141"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="G142:I142"/>
-    <mergeCell ref="K142:Q142"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="K143:Q143"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -122,6 +122,15 @@
     <t>67.5000</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>111.0000</t>
+  </si>
+  <si>
     <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -386,6 +395,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>18.2400</t>
+  </si>
+  <si>
     <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
   </si>
   <si>
@@ -695,6 +716,9 @@
     <t>390.0000</t>
   </si>
   <si>
+    <t>MYOCOOL CREAM 60 GM</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -866,6 +890,18 @@
     <t>68.3100</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -1064,7 +1100,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>24:0</t>
+    <t>25:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1073,9 +1109,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>15:0</t>
-  </si>
-  <si>
     <t>شمع حريمي</t>
   </si>
   <si>
@@ -1103,7 +1136,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 11:07 PM</t>
+    <t>Tuesday, 16 September, 2025 11:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1942,7 +1975,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1952,14 +1985,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1968,14 +2001,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2008,7 +2041,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2041,7 +2074,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2058,7 +2091,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2067,31 +2100,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2100,20 +2133,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -2140,7 +2173,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2173,7 +2206,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2190,7 +2223,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2206,7 +2239,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2223,7 +2256,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2239,7 +2272,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2272,7 +2305,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2305,7 +2338,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2338,7 +2371,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2348,14 +2381,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2364,14 +2397,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2381,14 +2414,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2397,14 +2430,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2414,14 +2447,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2430,14 +2463,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2447,14 +2480,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2463,28 +2496,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>23</v>
@@ -2496,31 +2529,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2529,14 +2562,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2546,14 +2579,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2569,7 +2602,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2586,7 +2619,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2602,7 +2635,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2612,14 +2645,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2635,7 +2668,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2645,7 +2678,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2668,7 +2701,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2701,7 +2734,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2711,14 +2744,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2727,14 +2760,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2744,11 +2777,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2760,14 +2793,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2777,14 +2810,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2793,14 +2826,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2810,14 +2843,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2826,14 +2859,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2843,11 +2876,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2866,7 +2899,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2876,7 +2909,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2899,7 +2932,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2909,14 +2942,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2925,14 +2958,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2942,11 +2975,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2958,14 +2991,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2975,14 +3008,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2991,14 +3024,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3008,14 +3041,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3024,28 +3057,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -3057,14 +3090,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3074,14 +3107,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3090,24 +3123,24 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -3130,7 +3163,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3140,11 +3173,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3156,14 +3189,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3173,11 +3206,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3189,14 +3222,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3213,7 +3246,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3229,7 +3262,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3239,14 +3272,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3255,14 +3288,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3272,11 +3305,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>23</v>
@@ -3288,14 +3321,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3305,11 +3338,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>23</v>
@@ -3321,14 +3354,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3338,11 +3371,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>23</v>
@@ -3354,14 +3387,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3371,14 +3404,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3387,14 +3420,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3404,14 +3437,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3427,7 +3460,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3437,11 +3470,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3453,14 +3486,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3470,14 +3503,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3486,14 +3519,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3503,14 +3536,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3519,14 +3552,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3536,14 +3569,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3552,14 +3585,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3569,11 +3602,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>23</v>
@@ -3585,14 +3618,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3602,14 +3635,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3618,14 +3651,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>55</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3635,14 +3668,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3658,7 +3691,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3675,7 +3708,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3691,7 +3724,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3701,14 +3734,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3717,14 +3750,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3734,14 +3767,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3750,14 +3783,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3767,14 +3800,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3783,14 +3816,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3800,11 +3833,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>35</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3816,14 +3849,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3833,14 +3866,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3849,14 +3882,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3866,14 +3899,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3882,31 +3915,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3915,14 +3948,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3932,11 +3965,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>23</v>
@@ -3948,28 +3981,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>23</v>
@@ -3981,14 +4014,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3998,14 +4031,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4014,14 +4047,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4031,14 +4064,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4047,14 +4080,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4064,11 +4097,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4080,14 +4113,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4097,14 +4130,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4113,14 +4146,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4130,14 +4163,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4146,14 +4179,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4163,11 +4196,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>23</v>
@@ -4179,31 +4212,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4212,7 +4245,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4229,11 +4262,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>23</v>
@@ -4245,28 +4278,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4278,28 +4311,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>23</v>
@@ -4311,14 +4344,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4328,11 +4361,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>23</v>
@@ -4344,14 +4377,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4361,11 +4394,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4377,31 +4410,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>236</v>
+        <v>55</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>114</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4410,14 +4443,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4427,14 +4460,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4450,7 +4483,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4460,14 +4493,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>243</v>
+        <v>35</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4476,14 +4509,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>89</v>
+        <v>244</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4493,14 +4526,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>23</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4509,14 +4542,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4526,14 +4559,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4542,14 +4575,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4559,11 +4592,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>23</v>
@@ -4575,28 +4608,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>23</v>
@@ -4608,14 +4641,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4625,14 +4658,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4641,14 +4674,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>261</v>
+        <v>55</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4658,14 +4691,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4674,28 +4707,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>23</v>
@@ -4707,14 +4740,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>268</v>
+        <v>55</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4724,14 +4757,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>100</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4740,14 +4773,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4757,11 +4790,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4773,14 +4806,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4790,14 +4823,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>84</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4813,7 +4846,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>52</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4823,14 +4856,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>212</v>
+        <v>103</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4839,14 +4872,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4856,11 +4889,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4872,14 +4905,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>280</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4889,14 +4922,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>247</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4905,14 +4938,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4922,14 +4955,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4938,28 +4971,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4971,14 +5004,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>288</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4988,14 +5021,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5004,28 +5037,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>224</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>23</v>
@@ -5037,31 +5070,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5070,28 +5103,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>52</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>83</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>84</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>23</v>
@@ -5103,28 +5136,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5136,28 +5169,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>84</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>23</v>
@@ -5169,14 +5202,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5186,11 +5219,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>167</v>
+        <v>304</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>23</v>
@@ -5202,31 +5235,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>302</v>
+        <v>86</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>303</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5235,31 +5268,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>280</v>
+        <v>23</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>97</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>98</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5268,14 +5301,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5285,14 +5318,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5301,14 +5334,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>307</v>
+        <v>23</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5318,14 +5351,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>61</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5334,14 +5367,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5351,14 +5384,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>175</v>
+        <v>314</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5367,14 +5400,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>52</v>
+        <v>288</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5384,14 +5417,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5400,14 +5433,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5417,14 +5450,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>313</v>
+        <v>134</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>314</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5433,14 +5466,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>38</v>
+        <v>319</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5450,14 +5483,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>316</v>
+        <v>134</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>317</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5466,14 +5499,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5483,14 +5516,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>319</v>
+        <v>182</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>320</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>50</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5506,7 +5539,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>322</v>
+        <v>55</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5516,14 +5549,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5532,14 +5565,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5549,14 +5582,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5565,14 +5598,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>329</v>
+        <v>41</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5582,14 +5615,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>249</v>
+        <v>328</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>250</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5605,7 +5638,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5615,14 +5648,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>209</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5631,14 +5664,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>23</v>
+        <v>334</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5648,14 +5681,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>63</v>
+        <v>335</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5664,14 +5697,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>307</v>
+        <v>31</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5681,14 +5714,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5697,28 +5730,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>89</v>
+        <v>341</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>337</v>
+        <v>257</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>338</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>23</v>
@@ -5730,31 +5763,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>340</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5763,31 +5796,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>342</v>
+        <v>23</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>343</v>
+        <v>66</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>116</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5796,28 +5829,28 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>208</v>
+        <v>346</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>209</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>23</v>
@@ -5829,28 +5862,28 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>224</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>23</v>
@@ -5862,28 +5895,28 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>348</v>
+        <v>118</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>23</v>
@@ -5895,31 +5928,31 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>52</v>
+        <v>354</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>351</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5928,31 +5961,31 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>52</v>
+        <v>319</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>353</v>
+        <v>215</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>354</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5961,28 +5994,28 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>280</v>
+        <v>85</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>115</v>
+        <v>358</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>340</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>23</v>
@@ -5994,28 +6027,28 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>73</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>23</v>
@@ -6027,31 +6060,31 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>116</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>23</v>
+        <v>363</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6060,31 +6093,31 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>246</v>
+        <v>365</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>23</v>
+        <v>294</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6093,28 +6126,28 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>23</v>
+        <v>288</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c t="s" r="L139" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>360</v>
+        <v>118</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>23</v>
@@ -6126,28 +6159,28 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c t="s" r="L140" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>23</v>
@@ -6159,66 +6192,198 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c t="s" r="L141" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>243</v>
+        <v>355</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>244</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
-      <c r="P142" s="13">
-        <v>8235.7350000000006</v>
-      </c>
-      <c r="Q142" s="13"/>
-    </row>
-    <row r="143" ht="16.5" customHeight="1">
-      <c t="s" r="A143" s="14">
-        <v>364</v>
-      </c>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c t="s" r="G143" s="15">
-        <v>365</v>
-      </c>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="16"/>
-      <c t="s" r="K143" s="17">
-        <v>366</v>
-      </c>
-      <c r="L143" s="17"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
-      <c r="O143" s="17"/>
-      <c r="P143" s="17"/>
-      <c r="Q143" s="17"/>
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>369</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>55</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>56</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>254</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>370</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>23</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>56</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>371</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>372</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
+        <v>373</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>55</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>56</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>137</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
+        <v>374</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>89</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>56</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
+        <v>251</v>
+      </c>
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q145" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="P146" s="13">
+        <v>8472.9750000000004</v>
+      </c>
+      <c r="Q146" s="13"/>
+    </row>
+    <row r="147" ht="16.5" customHeight="1">
+      <c t="s" r="A147" s="14">
+        <v>375</v>
+      </c>
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c t="s" r="G147" s="15">
+        <v>376</v>
+      </c>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="16"/>
+      <c t="s" r="K147" s="17">
+        <v>377</v>
+      </c>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
+      <c r="N147" s="17"/>
+      <c r="O147" s="17"/>
+      <c r="P147" s="17"/>
+      <c r="Q147" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="687">
+  <mergeCells count="707">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6902,10 +7067,30 @@
     <mergeCell ref="H141:K141"/>
     <mergeCell ref="L141:M141"/>
     <mergeCell ref="N141:O141"/>
-    <mergeCell ref="P142:Q142"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="G143:I143"/>
-    <mergeCell ref="K143:Q143"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="A147:F147"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="K147:Q147"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -395,6 +395,24 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>COPAD 10.000 30 CAPS.</t>
+  </si>
+  <si>
+    <t>215.00</t>
+  </si>
+  <si>
+    <t>70.9500</t>
+  </si>
+  <si>
     <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -419,6 +437,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -665,6 +692,15 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
     <t>MARCAL 30 TABLETS</t>
   </si>
   <si>
@@ -761,6 +797,12 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
     <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -1136,7 +1178,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 11:18 PM</t>
+    <t>Tuesday, 16 September, 2025 11:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2965,7 +3007,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2975,14 +3017,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2991,14 +3033,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3008,14 +3050,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3024,14 +3066,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3041,11 +3083,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -3057,14 +3099,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3074,14 +3116,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3097,7 +3139,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3107,14 +3149,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3130,24 +3172,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3156,14 +3198,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3173,11 +3215,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3189,14 +3231,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3206,14 +3248,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3229,21 +3271,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3255,14 +3297,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3272,11 +3314,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3288,14 +3330,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3305,14 +3347,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3321,14 +3363,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3338,14 +3380,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3354,14 +3396,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3371,14 +3413,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3387,14 +3429,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3404,11 +3446,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>23</v>
@@ -3420,14 +3462,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3437,11 +3479,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>23</v>
@@ -3453,14 +3495,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3470,14 +3512,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3493,7 +3535,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3510,7 +3552,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3526,7 +3568,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3536,14 +3578,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3552,14 +3594,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3569,14 +3611,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3585,14 +3627,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3602,14 +3644,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3618,14 +3660,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3635,11 +3677,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3651,14 +3693,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3668,11 +3710,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>23</v>
@@ -3684,14 +3726,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3701,11 +3743,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>23</v>
@@ -3717,14 +3759,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3734,11 +3776,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3750,14 +3792,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3767,14 +3809,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3783,14 +3825,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3800,7 +3842,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3823,7 +3865,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3833,11 +3875,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>143</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3849,14 +3891,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3866,14 +3908,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>67</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3882,14 +3924,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3899,14 +3941,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3915,14 +3957,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3932,14 +3974,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3948,14 +3990,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3965,14 +4007,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3981,31 +4023,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>51</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4014,14 +4056,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4031,14 +4073,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>57</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4047,14 +4089,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4064,11 +4106,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -4080,31 +4122,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4113,14 +4155,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4130,14 +4172,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4146,14 +4188,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4163,14 +4205,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4179,14 +4221,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4196,14 +4238,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4212,7 +4254,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4229,14 +4271,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4245,7 +4287,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4262,14 +4304,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4278,28 +4320,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4311,14 +4353,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4328,11 +4370,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>23</v>
@@ -4344,14 +4386,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4361,11 +4403,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>23</v>
@@ -4377,14 +4419,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4394,14 +4436,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>195</v>
+        <v>35</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4410,14 +4452,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4427,14 +4469,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4443,7 +4485,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4460,11 +4502,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>23</v>
@@ -4476,14 +4518,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4493,14 +4535,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4509,14 +4551,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>244</v>
+        <v>117</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4526,14 +4568,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4542,31 +4584,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4575,14 +4617,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4592,11 +4634,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>23</v>
@@ -4608,14 +4650,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4625,14 +4667,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>35</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4641,14 +4683,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4665,7 +4707,7 @@
         <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4681,7 +4723,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4698,7 +4740,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4714,13 +4756,13 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4728,10 +4770,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4740,14 +4782,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4757,14 +4799,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4773,14 +4815,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>269</v>
+        <v>92</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4790,14 +4832,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4806,14 +4848,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4823,11 +4865,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>23</v>
@@ -4839,14 +4881,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>55</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4856,14 +4898,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>103</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4872,31 +4914,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4905,14 +4947,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4922,14 +4964,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>87</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4938,14 +4980,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>55</v>
+        <v>283</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4955,11 +4997,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>220</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4971,14 +5013,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4988,14 +5030,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5004,14 +5046,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5021,14 +5063,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>254</v>
+        <v>103</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5037,14 +5079,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5054,14 +5096,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>224</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>225</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5070,28 +5112,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5103,14 +5145,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>55</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5120,14 +5162,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>231</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5136,14 +5178,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5153,11 +5195,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5169,28 +5211,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>55</v>
+        <v>302</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>23</v>
@@ -5219,11 +5261,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>304</v>
+        <v>236</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>23</v>
@@ -5235,14 +5277,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5252,14 +5294,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>86</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>87</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5275,24 +5317,24 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>23</v>
+        <v>308</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5301,14 +5343,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5318,14 +5360,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>86</v>
+        <v>312</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5334,28 +5376,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>23</v>
@@ -5367,14 +5409,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5384,14 +5426,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5400,31 +5442,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>288</v>
+        <v>55</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5433,28 +5475,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>134</v>
+        <v>322</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>64</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5466,14 +5508,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5483,14 +5525,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5499,14 +5541,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5516,14 +5558,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>43</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>92</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5532,14 +5574,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5549,11 +5591,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5565,14 +5607,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>156</v>
+        <v>302</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5582,14 +5624,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>325</v>
+        <v>100</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>326</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5598,14 +5640,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5615,14 +5657,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>328</v>
+        <v>140</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>329</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5631,14 +5673,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>156</v>
+        <v>333</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5648,14 +5690,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>331</v>
+        <v>140</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>332</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5664,14 +5706,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>334</v>
+        <v>89</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5681,14 +5723,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>335</v>
+        <v>191</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>336</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>181</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5697,14 +5739,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5714,11 +5756,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5730,14 +5772,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>341</v>
+        <v>165</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5747,11 +5789,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>257</v>
+        <v>339</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>258</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>23</v>
@@ -5763,14 +5805,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5780,14 +5822,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>82</v>
+        <v>342</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>216</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5796,14 +5838,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5813,14 +5855,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>66</v>
+        <v>345</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5829,14 +5871,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5846,14 +5888,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>23</v>
+        <v>190</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5862,31 +5904,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5895,28 +5937,28 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>89</v>
+        <v>355</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>352</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>23</v>
@@ -5928,31 +5970,31 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>354</v>
+        <v>16</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5961,31 +6003,31 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>319</v>
+        <v>23</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>216</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5994,28 +6036,28 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>85</v>
+        <v>333</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>231</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>23</v>
@@ -6027,14 +6069,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6044,11 +6086,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>23</v>
@@ -6060,14 +6102,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6077,14 +6119,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>335</v>
+        <v>118</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>363</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6093,14 +6135,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>55</v>
+        <v>368</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6110,14 +6152,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>294</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6126,14 +6168,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6143,11 +6185,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>352</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>23</v>
@@ -6159,14 +6201,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6176,11 +6218,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>75</v>
+        <v>372</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>23</v>
@@ -6192,7 +6234,7 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
@@ -6209,11 +6251,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>119</v>
+        <v>375</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>23</v>
@@ -6225,7 +6267,7 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
@@ -6242,14 +6284,14 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>254</v>
+        <v>349</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>255</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q142" s="12">
-        <v>23</v>
+        <v>377</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
@@ -6258,14 +6300,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6275,14 +6317,14 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>372</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q143" s="12">
-        <v>23</v>
+        <v>308</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
@@ -6291,14 +6333,14 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>55</v>
+        <v>302</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6308,11 +6350,11 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>198</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>23</v>
@@ -6324,14 +6366,14 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6341,49 +6383,214 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>252</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q145" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="146" ht="25.5" customHeight="1">
-      <c r="P146" s="13">
-        <v>8472.9750000000004</v>
-      </c>
-      <c r="Q146" s="13"/>
-    </row>
-    <row r="147" ht="16.5" customHeight="1">
-      <c t="s" r="A147" s="14">
-        <v>375</v>
-      </c>
-      <c r="B147" s="14"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c t="s" r="G147" s="15">
-        <v>376</v>
-      </c>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="16"/>
-      <c t="s" r="K147" s="17">
-        <v>377</v>
-      </c>
-      <c r="L147" s="17"/>
-      <c r="M147" s="17"/>
-      <c r="N147" s="17"/>
-      <c r="O147" s="17"/>
-      <c r="P147" s="17"/>
-      <c r="Q147" s="17"/>
+      <c r="A146" s="7">
+        <v>140</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c t="s" r="C146" s="8">
+        <v>382</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c t="s" r="H146" s="9">
+        <v>55</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c t="s" r="L146" s="10">
+        <v>56</v>
+      </c>
+      <c r="M146" s="10"/>
+      <c t="s" r="N146" s="8">
+        <v>369</v>
+      </c>
+      <c r="O146" s="8"/>
+      <c t="s" r="P146" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q146" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="A147" s="7">
+        <v>141</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c t="s" r="C147" s="8">
+        <v>383</v>
+      </c>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c t="s" r="H147" s="9">
+        <v>55</v>
+      </c>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c t="s" r="L147" s="10">
+        <v>56</v>
+      </c>
+      <c r="M147" s="10"/>
+      <c t="s" r="N147" s="8">
+        <v>268</v>
+      </c>
+      <c r="O147" s="8"/>
+      <c t="s" r="P147" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q147" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" ht="24.75" customHeight="1">
+      <c r="A148" s="7">
+        <v>142</v>
+      </c>
+      <c r="B148" s="7"/>
+      <c t="s" r="C148" s="8">
+        <v>384</v>
+      </c>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c t="s" r="H148" s="9">
+        <v>23</v>
+      </c>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c t="s" r="L148" s="10">
+        <v>56</v>
+      </c>
+      <c r="M148" s="10"/>
+      <c t="s" r="N148" s="8">
+        <v>385</v>
+      </c>
+      <c r="O148" s="8"/>
+      <c t="s" r="P148" s="11">
+        <v>386</v>
+      </c>
+      <c t="s" r="Q148" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" ht="25.5" customHeight="1">
+      <c r="A149" s="7">
+        <v>143</v>
+      </c>
+      <c r="B149" s="7"/>
+      <c t="s" r="C149" s="8">
+        <v>387</v>
+      </c>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c t="s" r="H149" s="9">
+        <v>55</v>
+      </c>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c t="s" r="L149" s="10">
+        <v>56</v>
+      </c>
+      <c r="M149" s="10"/>
+      <c t="s" r="N149" s="8">
+        <v>146</v>
+      </c>
+      <c r="O149" s="8"/>
+      <c t="s" r="P149" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q149" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" ht="24.75" customHeight="1">
+      <c r="A150" s="7">
+        <v>144</v>
+      </c>
+      <c r="B150" s="7"/>
+      <c t="s" r="C150" s="8">
+        <v>388</v>
+      </c>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c t="s" r="H150" s="9">
+        <v>89</v>
+      </c>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c t="s" r="L150" s="10">
+        <v>56</v>
+      </c>
+      <c r="M150" s="10"/>
+      <c t="s" r="N150" s="8">
+        <v>265</v>
+      </c>
+      <c r="O150" s="8"/>
+      <c t="s" r="P150" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q150" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" ht="25.5" customHeight="1">
+      <c r="P151" s="13">
+        <v>9023.4249999999993</v>
+      </c>
+      <c r="Q151" s="13"/>
+    </row>
+    <row r="152" ht="16.5" customHeight="1">
+      <c t="s" r="A152" s="14">
+        <v>389</v>
+      </c>
+      <c r="B152" s="14"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14"/>
+      <c t="s" r="G152" s="15">
+        <v>390</v>
+      </c>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="16"/>
+      <c t="s" r="K152" s="17">
+        <v>391</v>
+      </c>
+      <c r="L152" s="17"/>
+      <c r="M152" s="17"/>
+      <c r="N152" s="17"/>
+      <c r="O152" s="17"/>
+      <c r="P152" s="17"/>
+      <c r="Q152" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="707">
+  <mergeCells count="732">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7087,10 +7294,35 @@
     <mergeCell ref="H145:K145"/>
     <mergeCell ref="L145:M145"/>
     <mergeCell ref="N145:O145"/>
-    <mergeCell ref="P146:Q146"/>
-    <mergeCell ref="A147:F147"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="K147:Q147"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="C148:G148"/>
+    <mergeCell ref="H148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="H149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:G150"/>
+    <mergeCell ref="H150:K150"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="P151:Q151"/>
+    <mergeCell ref="A152:F152"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="K152:Q152"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -1178,7 +1178,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 11:20 PM</t>
+    <t>Tuesday, 16 September, 2025 11:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -819,6 +819,12 @@
   </si>
   <si>
     <t>15.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>62.00</t>
   </si>
   <si>
     <t>PANTOLOC 20MG 14 E.C. TAB.</t>
@@ -4855,13 +4861,13 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4869,7 +4875,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>23</v>
@@ -4881,7 +4887,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4898,11 +4904,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>23</v>
@@ -4914,7 +4920,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4927,15 +4933,15 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>23</v>
@@ -4947,7 +4953,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4960,18 +4966,18 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4980,14 +4986,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>283</v>
+        <v>55</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4997,14 +5003,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -5013,14 +5019,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5030,14 +5036,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5046,14 +5052,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5063,14 +5069,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>103</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5079,14 +5085,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5096,14 +5102,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>103</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5112,14 +5118,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5129,11 +5135,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>87</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5152,7 +5158,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5162,11 +5168,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>232</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5178,14 +5184,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5195,11 +5201,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5211,14 +5217,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>302</v>
+        <v>53</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5228,14 +5234,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5251,7 +5257,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>55</v>
+        <v>304</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5261,11 +5267,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>23</v>
@@ -5277,31 +5283,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>305</v>
+        <v>236</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5310,31 +5316,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>308</v>
+        <v>53</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5343,14 +5349,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>310</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5360,14 +5366,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5376,31 +5382,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5409,7 +5415,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5422,15 +5428,15 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>23</v>
@@ -5442,7 +5448,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5455,15 +5461,15 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>86</v>
+        <v>320</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>87</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>23</v>
@@ -5475,14 +5481,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5492,14 +5498,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>322</v>
+        <v>86</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>323</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5508,31 +5514,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>86</v>
+        <v>324</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>87</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5541,14 +5547,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5558,11 +5564,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>326</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>23</v>
@@ -5581,7 +5587,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5591,14 +5597,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>328</v>
+        <v>183</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5607,14 +5613,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>302</v>
+        <v>53</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5624,14 +5630,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>101</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5640,14 +5646,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>31</v>
+        <v>304</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5657,14 +5663,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5673,14 +5679,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>333</v>
+        <v>31</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5713,7 +5719,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>89</v>
+        <v>335</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5723,14 +5729,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5739,14 +5745,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5756,14 +5762,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>336</v>
+        <v>191</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>337</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5772,14 +5778,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5789,14 +5795,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5805,14 +5811,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5822,14 +5828,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5838,14 +5844,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5855,14 +5861,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5871,14 +5877,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>348</v>
+        <v>165</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5888,14 +5894,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>190</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5904,14 +5910,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>31</v>
+        <v>350</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5921,14 +5927,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>190</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5937,14 +5943,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>355</v>
+        <v>31</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5954,14 +5960,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>271</v>
+        <v>354</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>272</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5977,7 +5983,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>16</v>
+        <v>357</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5987,14 +5993,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>82</v>
+        <v>273</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -6003,14 +6009,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6020,11 +6026,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>358</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -6043,7 +6049,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>333</v>
+        <v>23</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6053,14 +6059,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>360</v>
+        <v>66</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6069,28 +6075,28 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>92</v>
+        <v>335</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>23</v>
@@ -6102,14 +6108,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6119,7 +6125,7 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>118</v>
+        <v>365</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
@@ -6142,7 +6148,7 @@
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>368</v>
+        <v>89</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6152,11 +6158,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>369</v>
+        <v>118</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>119</v>
+        <v>368</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>23</v>
@@ -6168,14 +6174,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6185,11 +6191,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>224</v>
+        <v>371</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>23</v>
@@ -6201,14 +6207,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>85</v>
+        <v>335</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6218,11 +6224,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>372</v>
+        <v>224</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>23</v>
@@ -6241,7 +6247,7 @@
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6255,7 +6261,7 @@
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>375</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>23</v>
@@ -6267,7 +6273,7 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
@@ -6284,14 +6290,14 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c t="s" r="Q142" s="12">
-        <v>377</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
@@ -6317,14 +6323,14 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>243</v>
+        <v>368</v>
       </c>
       <c t="s" r="Q143" s="12">
-        <v>308</v>
+        <v>379</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
@@ -6340,7 +6346,7 @@
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>302</v>
+        <v>55</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6350,14 +6356,14 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>118</v>
+        <v>381</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>366</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q144" s="12">
-        <v>23</v>
+        <v>310</v>
       </c>
     </row>
     <row r="145" ht="24.75" customHeight="1">
@@ -6366,14 +6372,14 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>92</v>
+        <v>304</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6383,11 +6389,11 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>76</v>
+        <v>368</v>
       </c>
       <c t="s" r="Q145" s="12">
         <v>23</v>
@@ -6399,14 +6405,14 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -6416,11 +6422,11 @@
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>369</v>
+        <v>75</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q146" s="12">
         <v>23</v>
@@ -6432,7 +6438,7 @@
       </c>
       <c r="B147" s="7"/>
       <c t="s" r="C147" s="8">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
@@ -6449,11 +6455,11 @@
       </c>
       <c r="M147" s="10"/>
       <c t="s" r="N147" s="8">
-        <v>268</v>
+        <v>371</v>
       </c>
       <c r="O147" s="8"/>
       <c t="s" r="P147" s="11">
-        <v>269</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q147" s="12">
         <v>23</v>
@@ -6465,14 +6471,14 @@
       </c>
       <c r="B148" s="7"/>
       <c t="s" r="C148" s="8">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c t="s" r="H148" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
@@ -6482,11 +6488,11 @@
       </c>
       <c r="M148" s="10"/>
       <c t="s" r="N148" s="8">
-        <v>385</v>
+        <v>268</v>
       </c>
       <c r="O148" s="8"/>
       <c t="s" r="P148" s="11">
-        <v>386</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q148" s="12">
         <v>23</v>
@@ -6498,14 +6504,14 @@
       </c>
       <c r="B149" s="7"/>
       <c t="s" r="C149" s="8">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
       <c t="s" r="H149" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
@@ -6515,11 +6521,11 @@
       </c>
       <c r="M149" s="10"/>
       <c t="s" r="N149" s="8">
-        <v>146</v>
+        <v>387</v>
       </c>
       <c r="O149" s="8"/>
       <c t="s" r="P149" s="11">
-        <v>207</v>
+        <v>388</v>
       </c>
       <c t="s" r="Q149" s="12">
         <v>23</v>
@@ -6531,14 +6537,14 @@
       </c>
       <c r="B150" s="7"/>
       <c t="s" r="C150" s="8">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
       <c t="s" r="H150" s="9">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
@@ -6548,49 +6554,82 @@
       </c>
       <c r="M150" s="10"/>
       <c t="s" r="N150" s="8">
-        <v>265</v>
+        <v>146</v>
       </c>
       <c r="O150" s="8"/>
       <c t="s" r="P150" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q150" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" ht="25.5" customHeight="1">
+      <c r="A151" s="7">
+        <v>145</v>
+      </c>
+      <c r="B151" s="7"/>
+      <c t="s" r="C151" s="8">
+        <v>390</v>
+      </c>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c t="s" r="H151" s="9">
+        <v>89</v>
+      </c>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c t="s" r="L151" s="10">
+        <v>56</v>
+      </c>
+      <c r="M151" s="10"/>
+      <c t="s" r="N151" s="8">
+        <v>265</v>
+      </c>
+      <c r="O151" s="8"/>
+      <c t="s" r="P151" s="11">
         <v>266</v>
       </c>
-      <c t="s" r="Q150" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="151" ht="25.5" customHeight="1">
-      <c r="P151" s="13">
-        <v>9023.4249999999993</v>
-      </c>
-      <c r="Q151" s="13"/>
-    </row>
-    <row r="152" ht="16.5" customHeight="1">
-      <c t="s" r="A152" s="14">
-        <v>389</v>
-      </c>
-      <c r="B152" s="14"/>
-      <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
-      <c t="s" r="G152" s="15">
-        <v>390</v>
-      </c>
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
-      <c r="J152" s="16"/>
-      <c t="s" r="K152" s="17">
+      <c t="s" r="Q151" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" ht="25.5" customHeight="1">
+      <c r="P152" s="13">
+        <v>9085.4249999999993</v>
+      </c>
+      <c r="Q152" s="13"/>
+    </row>
+    <row r="153" ht="16.5" customHeight="1">
+      <c t="s" r="A153" s="14">
         <v>391</v>
       </c>
-      <c r="L152" s="17"/>
-      <c r="M152" s="17"/>
-      <c r="N152" s="17"/>
-      <c r="O152" s="17"/>
-      <c r="P152" s="17"/>
-      <c r="Q152" s="17"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c t="s" r="G153" s="15">
+        <v>392</v>
+      </c>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="16"/>
+      <c t="s" r="K153" s="17">
+        <v>393</v>
+      </c>
+      <c r="L153" s="17"/>
+      <c r="M153" s="17"/>
+      <c r="N153" s="17"/>
+      <c r="O153" s="17"/>
+      <c r="P153" s="17"/>
+      <c r="Q153" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="732">
+  <mergeCells count="737">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7319,10 +7358,15 @@
     <mergeCell ref="H150:K150"/>
     <mergeCell ref="L150:M150"/>
     <mergeCell ref="N150:O150"/>
-    <mergeCell ref="P151:Q151"/>
-    <mergeCell ref="A152:F152"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="K152:Q152"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:G151"/>
+    <mergeCell ref="H151:K151"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="P152:Q152"/>
+    <mergeCell ref="A153:F153"/>
+    <mergeCell ref="G153:I153"/>
+    <mergeCell ref="K153:Q153"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -827,6 +827,9 @@
     <t>62.00</t>
   </si>
   <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>PANTOLOC 20MG 14 E.C. TAB.</t>
   </si>
   <si>
@@ -1184,7 +1187,7 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 16 September, 2025 11:24 PM</t>
+    <t>Tuesday, 16 September, 2025 11:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4861,7 +4864,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4875,10 +4878,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4887,7 +4890,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4904,11 +4907,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>23</v>
@@ -4920,7 +4923,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4937,11 +4940,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>23</v>
@@ -4953,7 +4956,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4970,11 +4973,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>23</v>
@@ -4986,7 +4989,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -5003,11 +5006,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>53</v>
@@ -5019,14 +5022,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5036,11 +5039,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -5052,7 +5055,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -5069,11 +5072,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>23</v>
@@ -5085,14 +5088,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5106,7 +5109,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -5118,7 +5121,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5135,11 +5138,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5151,7 +5154,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5168,7 +5171,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -5184,7 +5187,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5217,7 +5220,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5234,11 +5237,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5250,14 +5253,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5283,7 +5286,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5316,7 +5319,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5333,11 +5336,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5349,14 +5352,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5366,11 +5369,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>23</v>
@@ -5382,7 +5385,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5399,11 +5402,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5415,7 +5418,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5432,11 +5435,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>23</v>
@@ -5448,7 +5451,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5465,11 +5468,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>23</v>
@@ -5481,7 +5484,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5514,7 +5517,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5531,11 +5534,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5547,7 +5550,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5580,7 +5583,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5601,7 +5604,7 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>23</v>
@@ -5613,7 +5616,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5630,11 +5633,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5646,14 +5649,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5679,7 +5682,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5712,14 +5715,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5745,7 +5748,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5778,7 +5781,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5795,11 +5798,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5811,7 +5814,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5828,11 +5831,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>23</v>
@@ -5844,7 +5847,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5861,11 +5864,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>21</v>
@@ -5877,7 +5880,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5894,11 +5897,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>53</v>
@@ -5910,14 +5913,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5927,11 +5930,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>190</v>
@@ -5943,7 +5946,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5960,11 +5963,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5976,14 +5979,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5993,11 +5996,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>23</v>
@@ -6009,7 +6012,7 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -6042,7 +6045,7 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -6063,7 +6066,7 @@
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6075,14 +6078,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6092,11 +6095,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>23</v>
@@ -6108,7 +6111,7 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -6125,11 +6128,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>23</v>
@@ -6141,7 +6144,7 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -6162,7 +6165,7 @@
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>23</v>
@@ -6174,14 +6177,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6191,7 +6194,7 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
@@ -6207,14 +6210,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6240,7 +6243,7 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
@@ -6257,7 +6260,7 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
@@ -6273,7 +6276,7 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
@@ -6290,11 +6293,11 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>23</v>
@@ -6306,7 +6309,7 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
@@ -6323,14 +6326,14 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q143" s="12">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
@@ -6339,7 +6342,7 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
@@ -6356,14 +6359,14 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q144" s="12">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="145" ht="24.75" customHeight="1">
@@ -6372,14 +6375,14 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6393,7 +6396,7 @@
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q145" s="12">
         <v>23</v>
@@ -6405,7 +6408,7 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
@@ -6438,7 +6441,7 @@
       </c>
       <c r="B147" s="7"/>
       <c t="s" r="C147" s="8">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
@@ -6455,7 +6458,7 @@
       </c>
       <c r="M147" s="10"/>
       <c t="s" r="N147" s="8">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O147" s="8"/>
       <c t="s" r="P147" s="11">
@@ -6471,7 +6474,7 @@
       </c>
       <c r="B148" s="7"/>
       <c t="s" r="C148" s="8">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
@@ -6504,7 +6507,7 @@
       </c>
       <c r="B149" s="7"/>
       <c t="s" r="C149" s="8">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
@@ -6521,11 +6524,11 @@
       </c>
       <c r="M149" s="10"/>
       <c t="s" r="N149" s="8">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O149" s="8"/>
       <c t="s" r="P149" s="11">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c t="s" r="Q149" s="12">
         <v>23</v>
@@ -6537,7 +6540,7 @@
       </c>
       <c r="B150" s="7"/>
       <c t="s" r="C150" s="8">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
@@ -6570,7 +6573,7 @@
       </c>
       <c r="B151" s="7"/>
       <c t="s" r="C151" s="8">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
@@ -6599,13 +6602,13 @@
     </row>
     <row r="152" ht="25.5" customHeight="1">
       <c r="P152" s="13">
-        <v>9085.4249999999993</v>
+        <v>9147.4249999999993</v>
       </c>
       <c r="Q152" s="13"/>
     </row>
     <row r="153" ht="16.5" customHeight="1">
       <c t="s" r="A153" s="14">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
@@ -6613,13 +6616,13 @@
       <c r="E153" s="14"/>
       <c r="F153" s="14"/>
       <c t="s" r="G153" s="15">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H153" s="15"/>
       <c r="I153" s="15"/>
       <c r="J153" s="16"/>
       <c t="s" r="K153" s="17">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L153" s="17"/>
       <c r="M153" s="17"/>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 12:01 AM</t>
+    <t>Wednesday, 17 September, 2025 12:02 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-16_00-00.xlsx
+++ b/DaySale_2025-09-16_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Wednesday, 17 September, 2025 12:02 AM</t>
+    <t>Wednesday, 17 September, 2025 12:03 AM</t>
   </si>
   <si>
     <t>1/1</t>
